--- a/armonk_results.xlsx
+++ b/armonk_results.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nfberthusen\Documents\Projects\Research\benewop-benchmarking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486AFBD0-D2ED-4835-9D1D-47AEBE2EE311}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A0E958-0397-455C-96BA-42EE63BEE07B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{A83D9AE7-01C1-4705-9240-4A7C990C7FB0}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="2" xr2:uid="{A83D9AE7-01C1-4705-9240-4A7C990C7FB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Armonk0" sheetId="3" r:id="rId1"/>
     <sheet name="Jojo0" sheetId="4" r:id="rId2"/>
-    <sheet name="Jojo14" sheetId="5" r:id="rId3"/>
+    <sheet name="Jojo1" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="169">
   <si>
     <t>Sigma = 336</t>
   </si>
@@ -257,9 +257,6 @@
     <t>Sigma = 176</t>
   </si>
   <si>
-    <t>Sigma = 224</t>
-  </si>
-  <si>
     <t>Duration = 176</t>
   </si>
   <si>
@@ -272,129 +269,18 @@
     <t>Sigma = 112</t>
   </si>
   <si>
-    <t>Duration = 1264</t>
-  </si>
-  <si>
-    <t>Sigma = 160</t>
-  </si>
-  <si>
-    <t>Duration = 1792</t>
-  </si>
-  <si>
     <t>Sigma = 32</t>
   </si>
   <si>
-    <t>Duration = 144</t>
-  </si>
-  <si>
-    <t>Pi Amplitude = 0.5155558045813029</t>
-  </si>
-  <si>
     <t>Duration = 80</t>
   </si>
   <si>
-    <t>Pi Amplitude = 0.4820231229432473</t>
-  </si>
-  <si>
-    <t>Duration = 96</t>
-  </si>
-  <si>
-    <t>Pi Amplitude = 0.4528229734189649</t>
-  </si>
-  <si>
-    <t>Pi Amplitude = 0.22603573166018434</t>
-  </si>
-  <si>
-    <t>Duration = 208</t>
-  </si>
-  <si>
-    <t>Pi Amplitude = 0.22055678641647897</t>
-  </si>
-  <si>
-    <t>Duration = 304</t>
-  </si>
-  <si>
-    <t>Pi Amplitude = 0.14579238680432907</t>
-  </si>
-  <si>
-    <t>Duration = 432</t>
-  </si>
-  <si>
-    <t>Pi Amplitude = 0.08659540350521905</t>
-  </si>
-  <si>
     <t>Duration = 608</t>
   </si>
   <si>
     <t>Sigma = 80</t>
   </si>
   <si>
-    <t>Pi Amplitude = 0.061653754788767876</t>
-  </si>
-  <si>
-    <t>Duration = 880</t>
-  </si>
-  <si>
-    <t>Pi Amplitude = 0.04253233166609496</t>
-  </si>
-  <si>
-    <t>Pi Amplitude = 0.030415987269213126</t>
-  </si>
-  <si>
-    <t>['5ef13ec10935ad0012f62195',</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> '5ef13ec374e2c3001237c07f',</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> '5ef13ec53ab4960013c76a8d',</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> '5ef13ec774e2c3001237c080',</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> '5ef13ec9eedb510013249636',</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> '5ef13ecb3ab4960013c76a8e',</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> '5ef13ecefbc24b0012759b31',</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> '5ef13ed1e957cd001433d5ed',</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> '5ef13ed53ab4960013c76a91',</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> '5ef13ed90935ad0012f62197']</t>
-  </si>
-  <si>
-    <t>Period = 75.84102024110992</t>
-  </si>
-  <si>
-    <t>Period = 106.84343385608015</t>
-  </si>
-  <si>
-    <t>Period = 156.39478899330499</t>
-  </si>
-  <si>
-    <t>Period = 234.94862733683894</t>
-  </si>
-  <si>
-    <t>Period = 395.02673451779174</t>
-  </si>
-  <si>
-    <t>Period = 544.1955730204184</t>
-  </si>
-  <si>
-    <t>Period = 799.8203736612871</t>
-  </si>
-  <si>
-    <t>Period = 890.5412017137159</t>
-  </si>
-  <si>
     <t>Pi Amplitude = 0.746812671196298</t>
   </si>
   <si>
@@ -507,6 +393,156 @@
   </si>
   <si>
     <t xml:space="preserve"> '5ef21cd53ab4960013c77194']</t>
+  </si>
+  <si>
+    <t>[[16, 80, 0.746812671196298],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [16, 112, 0.7728705049061994],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [16, 176, 0.6585249221137706],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [32, 256, 0.3697423251225845],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [48, 400, 0.22222851740909544],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [80, 608, 0.13313518634587407],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [112, 944, 0.09471767851172616],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [176, 1440, 0.05962263431168813]]</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.3530500137690539</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.32235243432845956</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.3187914520833258</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.15421520791740806</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.1028823095632427</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.026888747770390797</t>
+  </si>
+  <si>
+    <t>['5ef39df3eedb51001324aa7a',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef39df574e2c3001237d4e0',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef39df8dc3044001186beef',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef39dfa6c16190012683975',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef39dfcfbc24b001275af96',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef39dff0935ad0012f6356b',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef39e02041ca700148e96cb',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef39e0674e2c3001237d4e2']</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.04288369610097112</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.060841434934049914</t>
+  </si>
+  <si>
+    <t>[[16, 80, 0.3530500137690539],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [16, 112, 0.32235243432845956],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [16, 176, 0.3187914520833258],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [32, 256, 0.15421520791740806],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [48, 400, 0.1028823095632427],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [80, 608, 0.09761239624950298],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [112, 944, 0.06370666786771047],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [176, 1440, 0.026888747770390797]]</t>
+  </si>
+  <si>
+    <t>Period = 76.10424563894914</t>
+  </si>
+  <si>
+    <t>Period = 151.66160913455937</t>
+  </si>
+  <si>
+    <t>Period = 225.2530813937307</t>
+  </si>
+  <si>
+    <t>Period = 379.60417279044793</t>
+  </si>
+  <si>
+    <t>Period = 539.941450467514</t>
+  </si>
+  <si>
+    <t>Period = 862.92141357997</t>
+  </si>
+  <si>
+    <t>Period = 76.881417859797</t>
+  </si>
+  <si>
+    <t>Period = 70.18453963827605</t>
+  </si>
+  <si>
+    <t>Conversion constant: 23.66156363955276. Exponent: -0.9940037912357684</t>
+  </si>
+  <si>
+    <t>Conversion constant: 5.35893609525708. Exponent: -0.9654741107610489</t>
+  </si>
+  <si>
+    <t>['5ef3bbd30935ad0012f63680',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef3bbd66c16190012683a96',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef3bbd9eedb51001324ab80',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef3bbdb74e2c3001237d5fb',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef3bbde6c16190012683a99',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef3bbe174e2c3001237d5fc',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef3bbe4eedb51001324ab82',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef3bbe874e2c3001237d5fd']</t>
   </si>
 </sst>
 </file>
@@ -743,6 +779,133 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="8321040" y="6400800"/>
+          <a:ext cx="4050030" cy="2667000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC0207FD-B161-4218-B2B7-233E128F2955}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7680960" y="2743200"/>
+          <a:ext cx="3897630" cy="2667000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCE1AA0A-7956-4C13-9B70-1869462AE067}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7680960" y="6217920"/>
           <a:ext cx="4050030" cy="2667000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1065,7 +1228,7 @@
   <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+      <selection activeCell="E21" sqref="E12:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1419,220 +1582,244 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B839F2-24DF-4F83-AF49-8E1214A2C363}">
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>149</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>150</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="I3" s="2"/>
       <c r="M3" s="1" t="s">
-        <v>151</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="2"/>
       <c r="E4" s="1" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>152</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>153</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="I6" s="2"/>
       <c r="M6" s="1" t="s">
-        <v>154</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>137</v>
+        <v>99</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>155</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="2"/>
       <c r="E8" s="1" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>156</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
       <c r="E9" s="1"/>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E10" s="1"/>
       <c r="I10" s="1" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
+      </c>
+      <c r="E11" t="s">
+        <v>119</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="2"/>
+      <c r="E12" t="s">
+        <v>120</v>
+      </c>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>123</v>
+        <v>85</v>
+      </c>
+      <c r="E13" t="s">
+        <v>121</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>124</v>
+        <v>86</v>
+      </c>
+      <c r="E14" t="s">
+        <v>122</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>141</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
+      </c>
+      <c r="E15" t="s">
+        <v>123</v>
       </c>
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="2"/>
+      <c r="E16" t="s">
+        <v>124</v>
+      </c>
       <c r="I16" s="1" t="s">
-        <v>127</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" t="s">
         <v>125</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>142</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" t="s">
         <v>126</v>
       </c>
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>128</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="2"/>
       <c r="I20" s="1" t="s">
-        <v>143</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1" t="s">
-        <v>127</v>
+        <v>89</v>
       </c>
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="1" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>130</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="1" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>144</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1641,19 +1828,19 @@
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="1" t="s">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="1" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I27" s="2"/>
     </row>
@@ -1663,7 +1850,7 @@
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="1" t="s">
-        <v>130</v>
+        <v>92</v>
       </c>
       <c r="I29" s="1"/>
     </row>
@@ -1679,7 +1866,7 @@
       </c>
       <c r="I31" s="1"/>
       <c r="N31" s="1" t="s">
-        <v>147</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -1756,7 +1943,7 @@
     </row>
     <row r="51" spans="9:14">
       <c r="N51" s="1" t="s">
-        <v>148</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1767,284 +1954,296 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A889522-FA5B-428E-91F3-097041ED5071}">
-  <dimension ref="A1:I39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE92D17-E515-4641-BC92-A76D8264E0DA}">
+  <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I1:I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9">
+        <v>133</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9">
+        <v>134</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="M3" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="2"/>
       <c r="E4" s="1" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>128</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>151</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="M6" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>129</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="2"/>
       <c r="E8" s="1" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>157</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9">
+        <v>143</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="2"/>
+      <c r="E12" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="2"/>
+      <c r="E16" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="2"/>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="2"/>
-      <c r="I16" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="I19" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="2"/>
       <c r="I20" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="I23" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="2"/>
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="1:9">
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="2"/>
-      <c r="I28" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="2"/>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="2"/>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="M32" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="50" spans="13:13">
+      <c r="M50" s="1" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/armonk_results.xlsx
+++ b/armonk_results.xlsx
@@ -8,14 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nfberthusen\Documents\Projects\Research\benewop-benchmarking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A0E958-0397-455C-96BA-42EE63BEE07B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FBE9A7F-0FBF-43CD-87F2-EFA21C39E020}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="2" xr2:uid="{A83D9AE7-01C1-4705-9240-4A7C990C7FB0}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="16" xr2:uid="{A83D9AE7-01C1-4705-9240-4A7C990C7FB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Armonk0" sheetId="3" r:id="rId1"/>
     <sheet name="Jojo0" sheetId="4" r:id="rId2"/>
     <sheet name="Jojo1" sheetId="6" r:id="rId3"/>
+    <sheet name="Jojo2" sheetId="7" r:id="rId4"/>
+    <sheet name="Jojo3" sheetId="8" r:id="rId5"/>
+    <sheet name="Jojo4" sheetId="9" r:id="rId6"/>
+    <sheet name="Jojo5" sheetId="10" r:id="rId7"/>
+    <sheet name="Jojo6" sheetId="11" r:id="rId8"/>
+    <sheet name="Jojo7" sheetId="12" r:id="rId9"/>
+    <sheet name="Jojo8" sheetId="13" r:id="rId10"/>
+    <sheet name="Jojo9" sheetId="14" r:id="rId11"/>
+    <sheet name="Jojo10" sheetId="15" r:id="rId12"/>
+    <sheet name="Jojo11" sheetId="16" r:id="rId13"/>
+    <sheet name="Jojo12" sheetId="17" r:id="rId14"/>
+    <sheet name="Jojo13" sheetId="18" r:id="rId15"/>
+    <sheet name="Jojo14" sheetId="19" r:id="rId16"/>
+    <sheet name="Jojo15" sheetId="20" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -36,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="761">
   <si>
     <t>Sigma = 336</t>
   </si>
@@ -543,13 +557,1789 @@
   </si>
   <si>
     <t xml:space="preserve"> '5ef3bbe874e2c3001237d5fd']</t>
+  </si>
+  <si>
+    <t>Amplitude = 0.538217253430765</t>
+  </si>
+  <si>
+    <t>['5ef4cdf351390900147cd3b3',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef4cdf651390900147cd3b4',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef4cdf8a2591200133f2bd9',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef4cdfa8a74d20012b5c70c',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef4cdfd5faf0900143b1ca8',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef4cdff8a74d20012b5c70e',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef4ce02ddb6500012078868',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef4ce068a74d20012b5c70f']</t>
+  </si>
+  <si>
+    <t>[[16, 80, 0.7893069619621381],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [16, 112, 0.6570036809873281],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [16, 176, 0.7120162841750395],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [32, 256, 0.3702545482835854],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [48, 400, 0.23370520659547628],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [80, 608, 0.13628884083007134],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [112, 944, 0.09879210004039353],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [176, 1440, 0.06249515428361315]]</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.7893069619621381</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.6570036809873281</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.7120162841750395</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.3702545482835854</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.23370520659547628</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.13628884083007134</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.09879210004039353</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.06249515428361315</t>
+  </si>
+  <si>
+    <t>Decay rate = -0.9199634</t>
+  </si>
+  <si>
+    <t>[-0.08343727 -0.9199634  10.09610884]</t>
+  </si>
+  <si>
+    <t>[-0.03708302  -1.09391319  9.97353816]</t>
+  </si>
+  <si>
+    <t>Decay rate =  -1.09391319</t>
+  </si>
+  <si>
+    <t>Amplitude = 0.357704552298432</t>
+  </si>
+  <si>
+    <t>Period = 153.35407353949765</t>
+  </si>
+  <si>
+    <t>Period = 234.86494157130733</t>
+  </si>
+  <si>
+    <t>Period = 400.7595877674032</t>
+  </si>
+  <si>
+    <t>Period = 551.5117581945144</t>
+  </si>
+  <si>
+    <t>Period = 838.3015123306712</t>
+  </si>
+  <si>
+    <t>['5ef4e6505faf0900143b1e17',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef4e653ddb65000120789e6',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef4e655be0e7e00121bc533',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef4e6587855410012c57a50',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef4e65b5faf0900143b1e19',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef4e65ea2591200133f2d4a',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef4e6618a74d20012b5c880',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef4e665fb7fab0014a7e43e']</t>
+  </si>
+  <si>
+    <t>Period = 85.4580216332555</t>
+  </si>
+  <si>
+    <t>Period = 78.31587002319661</t>
+  </si>
+  <si>
+    <t>Period = 91.75802375268054</t>
+  </si>
+  <si>
+    <t>Conversion constant: 60.71437458094607. Exponent: -0.9478600149564859</t>
+  </si>
+  <si>
+    <t>Conversion constant: 11.45245806804462. Exponent: -0.9847146457687506</t>
+  </si>
+  <si>
+    <t>[-0.20442689 -0.76269796 10.93941748]</t>
+  </si>
+  <si>
+    <t>Decay rate = -0.76269796</t>
+  </si>
+  <si>
+    <t>Amplitude = 0.26769092284005813</t>
+  </si>
+  <si>
+    <t>[-0.11736571 -0.85643611 10.49278613]</t>
+  </si>
+  <si>
+    <t>Decay rate = -0.85643611</t>
+  </si>
+  <si>
+    <t>Amplitude = 0.213788892187756</t>
+  </si>
+  <si>
+    <t>[-0.05467633 -1.00820051 10.28490141]</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.5771037738375678</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.5242986917468712</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.5237720962365137</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.2527729558022653</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.1668537227025951</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.06998253855138245</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.04435148230393041</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.0989622621331052</t>
+  </si>
+  <si>
+    <t>['5ef4ff4d84b1b70012374f3c',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef4ff4fbe0e7e00121bc674',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef4ff515faf0900143b1f2a',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef4ff538cbf9a0012e3c621',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef4ff56be0e7e00121bc675',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef4ff587855410012c57b76',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef4ff5b5faf0900143b1f2c',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef4ff5e5faf0900143b1f2d']</t>
+  </si>
+  <si>
+    <t>[[16, 80, 0.5771037738375678],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [16, 112, 0.5242986917468712],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [16, 176, 0.5237720962365137],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [32, 256, 0.2527729558022653],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [48, 400, 0.1668537227025951],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [80, 608, 0.0989622621331052],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [112, 944, 0.06998253855138245],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [176, 1440, 0.04435148230393041]]</t>
+  </si>
+  <si>
+    <t>Period = 155.70587357944538</t>
+  </si>
+  <si>
+    <t>Period = 233.54654485196278</t>
+  </si>
+  <si>
+    <t>Period = 392.03308366691675</t>
+  </si>
+  <si>
+    <t>Period = 556.0528392677902</t>
+  </si>
+  <si>
+    <t>Period = 887.41312804115</t>
+  </si>
+  <si>
+    <t>['5ef50378fb7fab0014a7e5bc',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef5037b84b1b70012374f75',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef5037eddb6500012078b52',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef5038184b1b70012374f76',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef503848cbf9a0012e3c651',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef5038751390900147cd67c',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef5038a8cbf9a0012e3c652',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef5038e51390900147cd67e']</t>
+  </si>
+  <si>
+    <t>Period = 80.17257836437713</t>
+  </si>
+  <si>
+    <t>Period = 80.05559327942844</t>
+  </si>
+  <si>
+    <t>Period = 73.6761556337822</t>
+  </si>
+  <si>
+    <t>Conversion constant: 39.3158030358485. Exponent: -0.9990003473358622</t>
+  </si>
+  <si>
+    <t>Conversion constant: 8.422591490016428. Exponent: -0.9748121973084468</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.04778836437337883</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 1.1040600893437036</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 1.0878494141629553</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.6223425765826383</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.4016980825787865</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.23597502416612096</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.16502956011603426</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.10314781640864445</t>
+  </si>
+  <si>
+    <t>['5ef5083e8cbf9a0012e3c6c5',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef50841a2591200133f2f0a',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef5084351390900147cd6e2',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef508457855410012c57c2c',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef5084784b1b70012374fe1',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef5084afb7fab0014a7e63e',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef5084dddb6500012078bc8',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef50850be0e7e00121bc718']</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 1</t>
+  </si>
+  <si>
+    <t>Period = 106.28045347370454</t>
+  </si>
+  <si>
+    <t>Period = 160.26976509258023</t>
+  </si>
+  <si>
+    <t>Period = 237.67014647346596</t>
+  </si>
+  <si>
+    <t>Period = 548.046329908234</t>
+  </si>
+  <si>
+    <t>Period = 871.5091055311542</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [32, 256, 0.6223425765826383],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [48, 400, 0.4016980825787865],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [80, 608, 0.23597502416612096],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [112, 944, 0.16502956011603426],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [176, 1440, 0.10314781640864445]]</t>
+  </si>
+  <si>
+    <t>[[16, 176, 1],</t>
+  </si>
+  <si>
+    <t>Period = 389.10066291890274</t>
+  </si>
+  <si>
+    <t>['5ef50cc4ddb6500012078c24',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef50cc6a2591200133f2f69',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef50cc98a74d20012b5cabb',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef50ccc51390900147cd748',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef50ccfa2591200133f2f6c',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef50cd4ddb6500012078c28']</t>
+  </si>
+  <si>
+    <t>Conversion constant: 99.20715774307718. Exponent: -0.9545547178832068</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.7050361821220616</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.6425047528052333</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.3199447654895629</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.20967296119298706</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.12269260186848593</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.08576847502566266</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.05414414749457976</t>
+  </si>
+  <si>
+    <t>['5ef510c45faf0900143b208c',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef510c7a2591200133f2fc7',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef510c951390900147cd796',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef510cbbe0e7e00121bc7cc',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef510ce7855410012c57ce5',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef510d05faf0900143b208f',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef510d38a74d20012b5cb17',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef510d684b1b70012375085']</t>
+  </si>
+  <si>
+    <t>[[16, 80, 0.7050361821220616],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [16, 112, 0.11670782495816358],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [16, 176, 0.6425047528052333],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [32, 256, 0.3199447654895629],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [48, 400, 0.20967296119298706],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [80, 608, 0.12269260186848593],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [112, 944, 0.08576847502566266],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [176, 1440, 0.05414414749457976]]</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.635882024564977</t>
+  </si>
+  <si>
+    <t>Period = 76.61409803733643</t>
+  </si>
+  <si>
+    <t>Period = 154.261092077571</t>
+  </si>
+  <si>
+    <t>Period = 227.06550689992548</t>
+  </si>
+  <si>
+    <t>Period = 380.8720822090192</t>
+  </si>
+  <si>
+    <t>Period = 542.7253824180262</t>
+  </si>
+  <si>
+    <t>Period = 859.3217788567408</t>
+  </si>
+  <si>
+    <t>['5ef514e451390900147cd7e0',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef514ea51390900147cd7e2',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef514ed51390900147cd7e3',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef514ef8cbf9a0012e3c7c7',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef514f251390900147cd7e4',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef514f65faf0900143b20e7',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef514faddb6500012078ce2']</t>
+  </si>
+  <si>
+    <t>Period = 83.10160107576446</t>
+  </si>
+  <si>
+    <t>Conversion constant: 49.95313684255335. Exponent: -0.9741980721203277</t>
+  </si>
+  <si>
+    <t>Conversion constant: 10.668276009484188. Exponent: -0.9604334841997333</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.7706955187289692</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.7408873422666455</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.36467952828208655</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.23297631344626402</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.13558113239334343</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.09704187375791865</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.06073170067419344</t>
+  </si>
+  <si>
+    <t>['5ef51ca98cbf9a0012e3c845',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef51cac51390900147cd85d',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef51caebe0e7e00121bc89f',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef51cb1ddb6500012078d59',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef51cb38cbf9a0012e3c846',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef51cb65faf0900143b216d',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef51cb88cbf9a0012e3c847',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef51cbcddb6500012078d5b']</t>
+  </si>
+  <si>
+    <t>[[16, 80, 0.7706955187289692],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [16, 112, 0.7408873422666455],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [32, 256, 0.36467952828208655],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [48, 400, 0.23297631344626402],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [80, 608, 0.13558113239334343],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [112, 944, 0.09704187375791865],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [176, 1440, 0.06073170067419344]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [16, 176,0.6698540716191039],</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.6698540716191039</t>
+  </si>
+  <si>
+    <t>Period = 123.9306276388799</t>
+  </si>
+  <si>
+    <t>Period = 153.89835028673772</t>
+  </si>
+  <si>
+    <t>Period = 231.6380880457946</t>
+  </si>
+  <si>
+    <t>Period = 384.8881239843421</t>
+  </si>
+  <si>
+    <t>Period = 537.0204158474398</t>
+  </si>
+  <si>
+    <t>Period = 839.6990872605054</t>
+  </si>
+  <si>
+    <t>['5ef52021be0e7e00121bc8bc',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef5202351390900147cd880',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef52026a2591200133f30b9',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef52028ddb6500012078d7b',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef5202b51390900147cd881',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef5202e7855410012c57dd5',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef520318cbf9a0012e3c86e',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef520358cbf9a0012e3c870']</t>
+  </si>
+  <si>
+    <t>Period = 82.4100746670214</t>
+  </si>
+  <si>
+    <t>Conversion constant: 58.41743781494493. Exponent: -0.9507668252877607</t>
+  </si>
+  <si>
+    <t>Conversion constant: 11.650031111752481. Exponent: -0.9691865136543687</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.36488430058962623</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.33816527833404253</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.3405578033230602</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.16584273096588345</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.10931320337859506</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.04540814192989371</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.02854792815676111</t>
+  </si>
+  <si>
+    <t>['5ef52a0b7855410012c57e47',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef52a0ebe0e7e00121bc925',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef52a105faf0900143b21fd',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef52a12be0e7e00121bc927',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef52a1484b1b700123751f9',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef52a177855410012c57e48',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef52a1aa2591200133f3130',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef52a1dbe0e7e00121bc929']</t>
+  </si>
+  <si>
+    <t>[[16, 80, 0.36488430058962623],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [16, 112, 0.33816527833404253],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [16, 176, 0.3405578033230602],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [32, 256, 0.16584273096588345],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [48, 400, 0.10931320337859506],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [80, 608, 25.307955527852492],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [112, 944, 0.04540814192989371],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [176, 1440, 0.02854792815676111]]</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.0647471887272037</t>
+  </si>
+  <si>
+    <t>Period = 72.28001422854103</t>
+  </si>
+  <si>
+    <t>Period = 150.48366539953125</t>
+  </si>
+  <si>
+    <t>Period = 225.96838925966475</t>
+  </si>
+  <si>
+    <t>Period = 380.4883155731955</t>
+  </si>
+  <si>
+    <t>Period = 543.7359617626356</t>
+  </si>
+  <si>
+    <t>Period = 860.913787375557</t>
+  </si>
+  <si>
+    <t>['5ef52da7ddb6500012078e22',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef52da98a74d20012b5ccb7',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef52dacddb6500012078e23',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef52daf8cbf9a0012e3c8fb',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef52db25faf0900143b2238',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef52db55faf0900143b2239',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef52db88cbf9a0012e3c8ff',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef52dbb84b1b70012375238']</t>
+  </si>
+  <si>
+    <t>Period = 76.81563132063492</t>
+  </si>
+  <si>
+    <t>Period = 77.36267962672619</t>
+  </si>
+  <si>
+    <t>Conversion constant: 25.581627006241156. Exponent: -0.988440471817147</t>
+  </si>
+  <si>
+    <t>Conversion constant: 5.687450116117995. Exponent: -0.9648929117844334</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.7720584213651753</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.6906971142104891</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.7142066361893853</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.3503194496512126</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.23458527534597462</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.09977279926205697</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.062995415200085</t>
+  </si>
+  <si>
+    <t>['5ef57f195faf0900143b2570',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef57f1bfb7fab0014a7ebc9',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef57f1d8cbf9a0012e3cc65',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef57f1f7855410012c581ca',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef57f21be0e7e00121bccac',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef57f23be0e7e00121bccad',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef57f2684b1b7001237558c',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef57f29fb7fab0014a7ebcb']</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.14041499557488393</t>
+  </si>
+  <si>
+    <t>[[16, 80, 0.7720584213651753],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [16, 112, 0.6906971142104891],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [16, 176, 0.7142066361893853],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [32, 256, 0.3503194496512126],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [48, 400, 0.23458527534597462],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [80, 608, 0.14041499557488393],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [112, 944, 0.09977279926205697],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [176, 1440, 0.062995415200085]]</t>
+  </si>
+  <si>
+    <t>Period = 88.97315879684939</t>
+  </si>
+  <si>
+    <t>Period = 161.38071202527922</t>
+  </si>
+  <si>
+    <t>Period = 237.923296858723</t>
+  </si>
+  <si>
+    <t>Period = 396.2950429983237</t>
+  </si>
+  <si>
+    <t>Period = 556.2544213722755</t>
+  </si>
+  <si>
+    <t>Period = 868.6141967655781</t>
+  </si>
+  <si>
+    <t>Period = 86.4286107732024</t>
+  </si>
+  <si>
+    <t>Period = 81.26204602058213</t>
+  </si>
+  <si>
+    <t>['5ef582f0fb7fab0014a7ec14',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef582f3be0e7e00121bccf0',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef582f551390900147cdcdb',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef582f87855410012c58218',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef582fb5faf0900143b25c2',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef582fe84b1b700123755e1',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef58301be0e7e00121bccf2',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef58305a2591200133f34d8']</t>
+  </si>
+  <si>
+    <t>Conversion constant: 59.29925139248408. Exponent: -0.9705356561002346</t>
+  </si>
+  <si>
+    <t>Conversion constant: 11.519876740103824. Exponent: -0.9862872564599189</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.8469347352000653</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.7090437680439413</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.7410670869385751</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.4078566769551802</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.26650127780205013</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.16024982790251638</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.07065236124914025</t>
+  </si>
+  <si>
+    <t>['5ef5878584b1b7001237560b',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef58787fb7fab0014a7ec42',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef587895faf0900143b25ed',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef5878bbe0e7e00121bcd15',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef5878d8cbf9a0012e3cce4',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef5879084b1b7001237560f',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef5879351390900147cdd04',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef587968a74d20012b5d07f']</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.11337164440867784</t>
+  </si>
+  <si>
+    <t>[[16, 80, 0.8469347352000653],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [16, 112, 0.7090437680439413],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [16, 176, 0.7410670869385751],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [32, 256, 0.4078566769551802],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [48, 400, 0.26650127780205013],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [80, 608, 0.16024982790251638],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [112, 944, 0.11337164440867784],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [176, 1440, 0.07065236124914025]]</t>
+  </si>
+  <si>
+    <t>Period = 97.3059025311189</t>
+  </si>
+  <si>
+    <t>Period = 159.3769633653861</t>
+  </si>
+  <si>
+    <t>Period = 238.19397140344236</t>
+  </si>
+  <si>
+    <t>Period = 392.9082709646965</t>
+  </si>
+  <si>
+    <t>Period = 554.616791830447</t>
+  </si>
+  <si>
+    <t>Period = 885.4905798818505</t>
+  </si>
+  <si>
+    <t>['5ef58aa684b1b70012375627',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef58aa8a2591200133f3512',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef58aabfb7fab0014a7ec61',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef58aae8a74d20012b5d095',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef58ab08a74d20012b5d096',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef58ab4ddb65000120791ea',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef58ab78cbf9a0012e3ccfd',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef58abba2591200133f3514']</t>
+  </si>
+  <si>
+    <t>Period = 83.6636786147123</t>
+  </si>
+  <si>
+    <t>Period = 93.78771972994056</t>
+  </si>
+  <si>
+    <t>Conversion constant: 66.48049584501037. Exponent: -0.9759707562681753</t>
+  </si>
+  <si>
+    <t>Conversion constant: 13.072317572938855. Exponent: -0.9827775368102274</t>
+  </si>
+  <si>
+    <t>['5ef58e94be0e7e00121bcd59',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef58e9684b1b70012375647',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef58e98be0e7e00121bcd5a',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef58e9b51390900147cdd38',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef58e9da2591200133f3536',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef58ea08cbf9a0012e3cd1b',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef58ea27855410012c58278',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef58ea651390900147cdd3b']</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.7580443366197566</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.6997925580762662</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.3981413370594325</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.34834157465831983</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.22758948255048747</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.097382710932777</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.06178245423286615</t>
+  </si>
+  <si>
+    <t>[[16, 80, 0.7580443366197566],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [16, 112, 0.6997925580762662],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [16, 176, 0.3981413370594325],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [32, 256, 0.34834157465831983],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [48, 400, 0.22758948255048747],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [112, 944, 0.097382710932777],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [176, 1440, 0.06178245423286615]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [80, 608, 0.13678714939787087],</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.13678714939787087</t>
+  </si>
+  <si>
+    <t>Period = 138.83580591469132</t>
+  </si>
+  <si>
+    <t>Period = 157.63905405941856</t>
+  </si>
+  <si>
+    <t>Period = 238.3875591775931</t>
+  </si>
+  <si>
+    <t>Period = 394.7955048375134</t>
+  </si>
+  <si>
+    <t>Period = 556.4960906360539</t>
+  </si>
+  <si>
+    <t>Period = 873.4096090832659</t>
+  </si>
+  <si>
+    <t>['5ef5ff1984b1b700123759c7',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef5ff1c8a74d20012b5d438',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef5ff1ebe0e7e00121bd0cd',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef5ff217855410012c585db',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef5ff24be0e7e00121bd0cf',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef5ff27fb7fab0014a7f01f',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef5ff2bfb7fab0014a7f020',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef5ff308cbf9a0012e3d0a3']</t>
+  </si>
+  <si>
+    <t>Period = 79.3613537756605</t>
+  </si>
+  <si>
+    <t>Period = 84.79626244661245</t>
+  </si>
+  <si>
+    <t>Conversion constant: 55.96049466992817. Exponent: -0.9863270037625501</t>
+  </si>
+  <si>
+    <t>Conversion constant: 10.156982416076294. Exponent: -1.026503852980569</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.7954296313696497</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.7510289027921535</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.7533025903801482</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.3828842334412079</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.24274065626224897</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.10630839849836803</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.0676895181074665</t>
+  </si>
+  <si>
+    <t>['5ef611fc8cbf9a0012e3d14e',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef611fffb7fab0014a7f0c3',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef61201be0e7e00121bd164',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef6120384b1b70012375a77',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef6120584b1b70012375a78',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef612088a74d20012b5d4ec',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef6120b5faf0900143b2a4d',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef6120e51390900147ce13f']</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.14797150226133862</t>
+  </si>
+  <si>
+    <t>[[16, 80, 0.7954296313696497],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [16, 112, 0.7510289027921535],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [16, 176, 0.7533025903801482],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [32, 256, 0.3828842334412079],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [48, 400, 0.24274065626224897],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [80, 608, 0.07360565026138803],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [112, 944, 0.10630839849836803],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [176, 1440, 0.0676895181074665]]</t>
+  </si>
+  <si>
+    <t>Period = 87.16695947744621</t>
+  </si>
+  <si>
+    <t>Period = 157.94942750542037</t>
+  </si>
+  <si>
+    <t>Period = 246.7174679725694</t>
+  </si>
+  <si>
+    <t>Period = 401.432221018875</t>
+  </si>
+  <si>
+    <t>Period = 558.3096786076211</t>
+  </si>
+  <si>
+    <t>Period = 887.1282321257381</t>
+  </si>
+  <si>
+    <t>['5ef6156851390900147ce156',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef6156b7855410012c586a8',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef6156e5faf0900143b2a72',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef615715faf0900143b2a73',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef61573ddb6500012079639',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef6157651390900147ce159',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef615797855410012c586aa',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef6157d51390900147ce15a']</t>
+  </si>
+  <si>
+    <t>Period = 86.9233543062518</t>
+  </si>
+  <si>
+    <t>Period = 83.30770008425314</t>
+  </si>
+  <si>
+    <t>Conversion constant: 61.0468753438098. Exponent: -0.9919133368276755</t>
+  </si>
+  <si>
+    <t>Conversion constant: 11.929204320355337. Exponent: -0.9990248777026389</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.7125673595866576</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.8573628340981987</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.7051806819978372</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.4480707013281065</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.2833993871295863</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.16706935608459217</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.1169316832401407</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.07439068823315236</t>
+  </si>
+  <si>
+    <t>['5ef61bccbe0e7e00121bd1bf',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef61bcf8cbf9a0012e3d1a9',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef61bd1be0e7e00121bd1c2',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef61bd38a74d20012b5d548',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef61bd68cbf9a0012e3d1ab',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef61bd85faf0900143b2aa4',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef61bdb7855410012c586db',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef61bde8a74d20012b5d54b']</t>
+  </si>
+  <si>
+    <t>[[16, 80, 0.7125673595866576],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [16, 112, 0.8573628340981987],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [16, 176, 0.7051806819978372],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [32, 256, 0.4480707013281065],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [48, 400, 0.2833993871295863],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [80, 608, 0.16706935608459217],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [112, 944, 0.1169316832401407],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [176, 1440, 0.07439068823315236]]</t>
+  </si>
+  <si>
+    <t>Period = 87.60563011842729</t>
+  </si>
+  <si>
+    <t>Period = 152.89598823474347</t>
+  </si>
+  <si>
+    <t>Period = 232.57345361657855</t>
+  </si>
+  <si>
+    <t>Period = 387.80453573732666</t>
+  </si>
+  <si>
+    <t>Period = 550.6162794344533</t>
+  </si>
+  <si>
+    <t>Period = 867.0317998006063</t>
+  </si>
+  <si>
+    <t>['5ef624e2a2591200133f39ec',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef624e584b1b70012375b17',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef624e8be0e7e00121bd208',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef624eb8a74d20012b5d593',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef624eeddb65000120796ab',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef624f1fb7fab0014a7f159',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef624f5be0e7e00121bd209',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef624f9be0e7e00121bd20a']</t>
+  </si>
+  <si>
+    <t>Period = 103.30358271171241</t>
+  </si>
+  <si>
+    <t>Period = 102.46903350626683</t>
+  </si>
+  <si>
+    <t>Conversion constant: 69.53956380480695. Exponent: -0.9688283405688723</t>
+  </si>
+  <si>
+    <t>Conversion constant: 13.41656375569742. Exponent: -0.9910375292741338</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.7462473378414686</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.6737991747500327</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.6483315356998453</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.33902140170158257</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.21856708183109472</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.12857221359741536</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.09143531278175902</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.05717709171538155</t>
+  </si>
+  <si>
+    <t>['5ef62ca5ddb65000120796e8',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef62ca851390900147ce22c',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef62caa8a74d20012b5d5cd',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef62cad8a74d20012b5d5ce',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef62caf51390900147ce22d',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef62cb1be0e7e00121bd242',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef62cb45faf0900143b2b27',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef62cb884b1b70012375b5c']</t>
+  </si>
+  <si>
+    <t>[[16, 80, 0.7462473378414686],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [16, 112, 0.6737991747500327],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [16, 176, 0.6483315356998453],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [32, 256, 0.33902140170158257],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [48, 400, 0.21856708183109472],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [80, 608, 0.12857221359741536],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [112, 944, 0.09143531278175902],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [176, 1440, 0.05717709171538155]]</t>
+  </si>
+  <si>
+    <t>['5ef63b9151390900147ce2a2',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef63b945faf0900143b2b8f',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef63b968cbf9a0012e3d29a',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef63b9984b1b70012375bc3',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef63b9c84b1b70012375bc5',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef63ba08cbf9a0012e3d29e',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef63ba3fb7fab0014a7f213',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef63ba7a2591200133f3aa5']</t>
+  </si>
+  <si>
+    <t>Period = 152.80963145151418</t>
+  </si>
+  <si>
+    <t>Period = 231.2476384820515</t>
+  </si>
+  <si>
+    <t>Period = 388.6797401245147</t>
+  </si>
+  <si>
+    <t>Period = 540.0684751735856</t>
+  </si>
+  <si>
+    <t>Period = 870.0433822068977</t>
+  </si>
+  <si>
+    <t>Period = 77.4963623094325</t>
+  </si>
+  <si>
+    <t>Period = 84.34577603427384</t>
+  </si>
+  <si>
+    <t>Period = 87.10002571641554</t>
+  </si>
+  <si>
+    <t>Conversion constant: 53.04738616311787. Exponent: -0.9755092917894524</t>
+  </si>
+  <si>
+    <t>Conversion constant: 11.09074144750751. Exponent: -0.9659428057129544</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.510594990208445</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.4740162006318728</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.4655173176256431</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.22409967598785624</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.1467484200684614</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.08751722112116253</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.06170294050167689</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.038808459648393356</t>
+  </si>
+  <si>
+    <t>['5ef64351ddb6500012079809',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef6435351390900147ce33b',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef64355be0e7e00121bd35c',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef643578cbf9a0012e3d34e',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef64359a2591200133f3b46',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef6435c8cbf9a0012e3d350',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef6435f7855410012c5886a',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef6436351390900147ce33f']</t>
+  </si>
+  <si>
+    <t>[[16, 80, 0.510594990208445],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [16, 112, 0.4740162006318728],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [16, 176, 0.4655173176256431],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [32, 256, 0.22409967598785624],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [48, 400, 0.1467484200684614],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [80, 608, 0.08751722112116253],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [112, 944, 0.06170294050167689],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [176, 1440, 0.038808459648393356]]</t>
+  </si>
+  <si>
+    <t>Period = 71.74912418689289</t>
+  </si>
+  <si>
+    <t>Period = 153.70471507107283</t>
+  </si>
+  <si>
+    <t>Period = 232.2316161243709</t>
+  </si>
+  <si>
+    <t>Period = 387.6069260229165</t>
+  </si>
+  <si>
+    <t>Period = 550.5909920236437</t>
+  </si>
+  <si>
+    <t>Period = 862.7073348053972</t>
+  </si>
+  <si>
+    <t>['5ef6565984b1b70012375d64',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef6565b84b1b70012375d65',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef6565e51390900147ce441',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef656608cbf9a0012e3d44b',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef65663be0e7e00121bd441',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef65666ddb65000120798e7',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef6566a51390900147ce443',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef6566eddb65000120798e8']</t>
+  </si>
+  <si>
+    <t>Period = 77.9087422203134</t>
+  </si>
+  <si>
+    <t>Period = 76.71230081537733</t>
+  </si>
+  <si>
+    <t>Conversion constant: 35.92255650292224. Exponent: -0.9784188437551748</t>
+  </si>
+  <si>
+    <t>Conversion constant: 7.601093075606327. Exponent: -0.9666488482050365</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 1.016485184864977</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.8694664683772594</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.8787790869659213</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.28164164823258225</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.18404972375477802</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.07379884746225539</t>
+  </si>
+  <si>
+    <t>['5ef65bdd7855410012c58992',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef65bdf5faf0900143b2d4f',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef65be184b1b70012375d91',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef65be484b1b70012375d92',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef65be6be0e7e00121bd468',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef65be984b1b70012375d93',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef65becddb650001207990e',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef65befbe0e7e00121bd469']</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.4306437273528574</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.11706154012714548</t>
+  </si>
+  <si>
+    <t>[[16, 80, 1],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [16, 112, 0.8694664683772594],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [16, 176, 0.8787790869659213],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [32, 256, 0.4306437273528574],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [48, 400, 0.28164164823258225],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [80, 608, 0.18404972375477802],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [112, 944, 0.11706154012714548],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [176, 1440, 0.07379884746225539]]</t>
+  </si>
+  <si>
+    <t>['5ef6610afb7fab0014a7f3f9',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef6610c5faf0900143b2d81',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef6610fbe0e7e00121bd494',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef661128a74d20012b5d801',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef6611584b1b70012375dba',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef661188cbf9a0012e3d4a1',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef6611b8cbf9a0012e3d4a2',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5ef661207855410012c589bb']</t>
+  </si>
+  <si>
+    <t>Period = 76.65667016798142</t>
+  </si>
+  <si>
+    <t>Period = 86.04501936311694</t>
+  </si>
+  <si>
+    <t>Period = 160.08810552841186</t>
+  </si>
+  <si>
+    <t>Period = 235.05430003610692</t>
+  </si>
+  <si>
+    <t>Period = 351.2567061246331</t>
+  </si>
+  <si>
+    <t>Period = 550.2498750138275</t>
+  </si>
+  <si>
+    <t>Period = 859.889170821063</t>
+  </si>
+  <si>
+    <t>Period = 85.30765459618864</t>
+  </si>
+  <si>
+    <t>Conversion constant: 70.92519866266184. Exponent: -0.9561175027847064</t>
+  </si>
+  <si>
+    <t>Conversion constant: 15.113382279092622. Exponent: -0.9420720154939807</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -562,13 +2352,26 @@
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF262626"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -583,12 +2386,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -653,6 +2462,1022 @@
         <a:xfrm>
           <a:off x="5116830" y="2049780"/>
           <a:ext cx="3954780" cy="2667000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9F2C260-9C7E-4ED1-96AE-D01FBDE32522}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7680960" y="2011680"/>
+          <a:ext cx="3897630" cy="2667000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D81D5B5F-10F2-4175-8B0F-85F5DC1EA2CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7680960" y="5303520"/>
+          <a:ext cx="4050030" cy="2667000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D283ADF0-5C4E-4188-AAF3-BE1A64760106}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7680960" y="2011680"/>
+          <a:ext cx="3897630" cy="2667000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{241A0E33-39A5-4924-8099-994095900F32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7680960" y="5303520"/>
+          <a:ext cx="4050030" cy="2667000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>102870</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA1022EE-A249-4453-9ABA-1F5FFA4B4912}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7680960" y="3840480"/>
+          <a:ext cx="3943350" cy="2667000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CE68A83-FD14-450B-A344-4527178117CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7680960" y="6949440"/>
+          <a:ext cx="4107180" cy="2667000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>102870</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BB4CC7F-DDF5-4DC9-A0D9-807DEC32DB4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7680960" y="2194560"/>
+          <a:ext cx="3943350" cy="2667000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D341F2EB-6E37-47DF-8F68-B0552DE6BC11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7680960" y="5303520"/>
+          <a:ext cx="4107180" cy="2667000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>102870</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{845E5249-2079-41CC-AF64-CD4881CEE382}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7680960" y="2560320"/>
+          <a:ext cx="3943350" cy="2667000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57484341-B7B3-4B97-AA7B-3F3BCA3EA9B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7680960" y="5669280"/>
+          <a:ext cx="4107180" cy="2667000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>102870</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB59F263-1D9B-4B78-B2F8-531A4EDDEC0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7680960" y="2194560"/>
+          <a:ext cx="3943350" cy="2667000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E117F3B-FFD9-4E52-975C-84D6AB3A8EFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7680960" y="5486400"/>
+          <a:ext cx="4107180" cy="2667000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>102870</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{507E0D9D-7490-4DCB-8AED-E95FD6A7FAA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7680960" y="2011680"/>
+          <a:ext cx="3943350" cy="2667000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF30DD43-FB50-40C2-93B3-02E05CE43EAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7680960" y="5303520"/>
+          <a:ext cx="4107180" cy="2667000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>102870</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35525818-9B09-40E8-88E2-4EF9A32E6353}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7680960" y="2194560"/>
+          <a:ext cx="3943350" cy="2667000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A9E0A26-BDB8-4703-9915-D5A9E61B5F1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7680960" y="5486400"/>
+          <a:ext cx="4107180" cy="2667000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -741,14 +3566,14 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -778,8 +3603,618 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8321040" y="6400800"/>
+          <a:off x="8321040" y="5897880"/>
           <a:ext cx="4050030" cy="2667000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16201176-1811-412B-BC18-3A972F740CCA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="9875520"/>
+          <a:ext cx="9517380" cy="6477000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4F2913A-7719-4325-BE12-56F86792EA3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10241280" y="11338560"/>
+          <a:ext cx="3505200" cy="2362200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>621030</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9814F4E3-8969-4054-97F7-3BD9663994AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="16824960"/>
+          <a:ext cx="9582150" cy="6477000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78339A92-1CD5-4E9D-956A-B44ABD60E973}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10241280" y="18105120"/>
+          <a:ext cx="3505200" cy="2362200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>468630</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D29ECEBA-C210-4880-93FF-7B04C382FF2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="23957280"/>
+          <a:ext cx="9429750" cy="6477000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDFFD33B-CA8A-4B1E-ACF8-E8C35DA2FCFA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10241280" y="25603200"/>
+          <a:ext cx="3505200" cy="2362200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>537210</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{570625D0-A628-42F1-9A4E-F451304678AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="30906720"/>
+          <a:ext cx="9498330" cy="6477000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC7F1AC4-6393-420B-80FE-8EAF09270C3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10241280" y="32369760"/>
+          <a:ext cx="3505200" cy="2362200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>537210</xdr:colOff>
+      <xdr:row>242</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B8F8D4B-5264-47C6-90C6-50BE9C224ADA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="37856160"/>
+          <a:ext cx="9498330" cy="6477000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>215</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>227</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29343623-BABD-44DE-82DC-0F19886C50C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10241280" y="39319200"/>
+          <a:ext cx="3505200" cy="2362200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -906,6 +4341,768 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="7680960" y="6217920"/>
+          <a:ext cx="4050030" cy="2667000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF5951EF-554A-4011-B5A6-334F2670CEFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7680960" y="2011680"/>
+          <a:ext cx="3897630" cy="2667000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{654B3E72-BB59-4116-8D0E-D49F16312515}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7680960" y="5303520"/>
+          <a:ext cx="4050030" cy="2667000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{223507EA-10C1-4D3B-8255-039C7BE46087}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7680960" y="3108960"/>
+          <a:ext cx="3897630" cy="2667000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B65239F-F37C-4ABD-BD30-AA4C8A3A842F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7680960" y="6583680"/>
+          <a:ext cx="4050030" cy="2667000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E09CDB79-B615-4416-8A57-8F10104A4024}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7680960" y="2194560"/>
+          <a:ext cx="3897630" cy="2667000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CB31058-7196-4F1F-BA81-1CC35A52DC48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7680960" y="5486400"/>
+          <a:ext cx="4050030" cy="2667000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05E38F79-5FA7-4B57-BABB-D732C61C27A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7680960" y="2011680"/>
+          <a:ext cx="3897630" cy="2667000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BEC1148-F82A-4B92-89BD-62C8F663671A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7680960" y="5303520"/>
+          <a:ext cx="4050030" cy="2667000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A0A11DC-B83C-4D89-B995-6D9FE2D12C53}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7680960" y="2377440"/>
+          <a:ext cx="3897630" cy="2667000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF097FBF-084F-4B5B-8EF4-E588BA5E63ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7680960" y="5669280"/>
+          <a:ext cx="4050030" cy="2667000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F265165-519F-4C74-BBA8-3C782CCFCF13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7680960" y="2011680"/>
+          <a:ext cx="3897630" cy="2667000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03DD2A11-A71F-46FC-BA37-4DA6E21CCCDF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7680960" y="5120640"/>
           <a:ext cx="4050030" cy="2667000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1228,7 +5425,7 @@
   <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E12:E21"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1578,12 +5775,2353 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E67D709-B2E9-4878-826B-AF66F1CFC0DB}">
+  <dimension ref="A1:M45"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="M3" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="2"/>
+      <c r="E4" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="M6" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="2"/>
+      <c r="E8" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" t="s">
+        <v>441</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="2"/>
+      <c r="E12" t="s">
+        <v>442</v>
+      </c>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="E13" t="s">
+        <v>443</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" t="s">
+        <v>444</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" t="s">
+        <v>445</v>
+      </c>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="2"/>
+      <c r="E16" t="s">
+        <v>446</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="E17" t="s">
+        <v>447</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" t="s">
+        <v>448</v>
+      </c>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="2"/>
+      <c r="I20" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="13:13">
+      <c r="M45" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B976A48F-3163-417F-888B-860C9E226F7B}">
+  <dimension ref="A1:M46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U26" sqref="U26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="M3" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="2"/>
+      <c r="E4" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="M6" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="2"/>
+      <c r="E8" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" t="s">
+        <v>483</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" t="s">
+        <v>484</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="2"/>
+      <c r="E12" t="s">
+        <v>485</v>
+      </c>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="E13" t="s">
+        <v>486</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" t="s">
+        <v>487</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" t="s">
+        <v>488</v>
+      </c>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="2"/>
+      <c r="E16" t="s">
+        <v>489</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E17" t="s">
+        <v>490</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="2"/>
+      <c r="I20" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="13:13">
+      <c r="M46" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{647CB94D-1A87-4524-A0CC-04917BFEB605}">
+  <dimension ref="A1:M54"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="2"/>
+      <c r="E4" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="2"/>
+      <c r="E8" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="2"/>
+      <c r="E12" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="M12" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="M15" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="2"/>
+      <c r="E16" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="2"/>
+      <c r="I20" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="2"/>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="2"/>
+      <c r="I28" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="I32" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="37" spans="13:13">
+      <c r="M37" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="54" spans="13:13">
+      <c r="M54" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6E3FB12-5E67-49EF-8350-A0B0B3441602}">
+  <dimension ref="A1:M46"/>
+  <sheetViews>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="M46" sqref="M46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="M3" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="2"/>
+      <c r="E4" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="M6" s="1" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="2"/>
+      <c r="E8" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="2"/>
+      <c r="E12" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="2"/>
+      <c r="E16" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="2"/>
+      <c r="I20" s="1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="2"/>
+      <c r="M28" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="13:13">
+      <c r="M46" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F49A4D9D-3055-42A1-8B18-78256BB02294}">
+  <dimension ref="A1:M47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M47" sqref="M47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="M3" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="2"/>
+      <c r="E4" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="M6" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="2"/>
+      <c r="E8" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="2"/>
+      <c r="E12" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="2"/>
+      <c r="E16" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="2"/>
+      <c r="I20" s="1" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="1" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="13:13">
+      <c r="M47" s="1" t="s">
+        <v>634</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F441ED4A-A4A5-4B1C-A393-9F5E8B195A73}">
+  <dimension ref="A1:M46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="M3" s="1" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="2"/>
+      <c r="E4" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="M6" s="1" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="2"/>
+      <c r="E8" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="2"/>
+      <c r="E12" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="2"/>
+      <c r="E16" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="2"/>
+      <c r="I20" s="1" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="2"/>
+      <c r="M28" s="1" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="1" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="13:13">
+      <c r="M46" s="1" t="s">
+        <v>676</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6E939F4-3D06-4FCE-AD49-270D1875E40C}">
+  <dimension ref="A1:M45"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="M3" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="2"/>
+      <c r="E4" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="M6" s="1" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="2"/>
+      <c r="E8" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="2"/>
+      <c r="E12" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="2"/>
+      <c r="E16" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="2"/>
+      <c r="I20" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="1" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="1" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="13:13">
+      <c r="M45" s="1" t="s">
+        <v>718</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEE54EEC-C847-411B-B72C-A066C3BD4F4A}">
+  <dimension ref="A1:M46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J44" sqref="J44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="M3" s="1" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="2"/>
+      <c r="E4" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="M6" s="1" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="2"/>
+      <c r="E8" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" t="s">
+        <v>735</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="2"/>
+      <c r="E12" t="s">
+        <v>736</v>
+      </c>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="E13" t="s">
+        <v>737</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" t="s">
+        <v>738</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" t="s">
+        <v>739</v>
+      </c>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="2"/>
+      <c r="E16" t="s">
+        <v>740</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="E17" t="s">
+        <v>741</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" t="s">
+        <v>742</v>
+      </c>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="2"/>
+      <c r="I20" s="1" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="1" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="2"/>
+      <c r="M28" s="1" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="1" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="13:13">
+      <c r="M46" s="1" t="s">
+        <v>760</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B839F2-24DF-4F83-AF49-8E1214A2C363}">
-  <dimension ref="A1:N51"/>
+  <dimension ref="A1:R232"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q232" sqref="Q232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1935,15 +8473,228 @@
       <c r="I48" s="1"/>
       <c r="M48" s="1"/>
     </row>
-    <row r="49" spans="9:14">
+    <row r="49" spans="9:17">
       <c r="I49" s="1"/>
-    </row>
-    <row r="50" spans="9:14">
+      <c r="N49" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="50" spans="9:17">
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="9:14">
-      <c r="N51" s="1" t="s">
-        <v>110</v>
+    <row r="56" spans="9:17">
+      <c r="Q56" s="1">
+        <v>9.7696446787471505</v>
+      </c>
+    </row>
+    <row r="57" spans="9:17">
+      <c r="Q57" s="1">
+        <v>9.6359581880999592</v>
+      </c>
+    </row>
+    <row r="58" spans="9:17">
+      <c r="Q58" s="1">
+        <v>8.9270722154685096</v>
+      </c>
+    </row>
+    <row r="59" spans="9:17">
+      <c r="Q59" s="1">
+        <v>6.6683459070516298</v>
+      </c>
+    </row>
+    <row r="60" spans="9:17">
+      <c r="Q60" s="1">
+        <v>1.82000087741398</v>
+      </c>
+    </row>
+    <row r="77" spans="17:17">
+      <c r="Q77" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="78" spans="17:17">
+      <c r="Q78" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="79" spans="17:17">
+      <c r="Q79" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="94" spans="17:17">
+      <c r="Q94" s="1">
+        <v>9.6778711980061001</v>
+      </c>
+    </row>
+    <row r="95" spans="17:17">
+      <c r="Q95" s="1">
+        <v>9.5439418091715993</v>
+      </c>
+    </row>
+    <row r="96" spans="17:17">
+      <c r="Q96" s="1">
+        <v>9.5226263018744195</v>
+      </c>
+    </row>
+    <row r="97" spans="17:17">
+      <c r="Q97" s="1">
+        <v>6.7276010918338596</v>
+      </c>
+    </row>
+    <row r="98" spans="17:17">
+      <c r="Q98" s="1">
+        <v>1.2173577549383701</v>
+      </c>
+    </row>
+    <row r="115" spans="17:17">
+      <c r="Q115" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="116" spans="17:17">
+      <c r="Q116" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="117" spans="17:17">
+      <c r="Q117" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="135" spans="17:18">
+      <c r="Q135" s="1">
+        <v>10.4969109636901</v>
+      </c>
+      <c r="R135">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="17:18">
+      <c r="Q136" s="1">
+        <v>9.9835169020502601</v>
+      </c>
+      <c r="R136">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="137" spans="17:18">
+      <c r="Q137" s="1">
+        <v>8.9666589929712401</v>
+      </c>
+      <c r="R137">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="138" spans="17:18">
+      <c r="Q138" s="1">
+        <v>6.5924334370789603</v>
+      </c>
+      <c r="R138">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="139" spans="17:18">
+      <c r="Q139" s="1">
+        <v>1.6824694309932799</v>
+      </c>
+      <c r="R139">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="155" spans="17:17">
+      <c r="Q155" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="156" spans="17:17">
+      <c r="Q156" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="157" spans="17:17">
+      <c r="Q157" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="172" spans="17:17">
+      <c r="Q172" s="1">
+        <v>10.1268197686187</v>
+      </c>
+    </row>
+    <row r="173" spans="17:17">
+      <c r="Q173" s="1">
+        <v>9.9136416796111106</v>
+      </c>
+    </row>
+    <row r="174" spans="17:17">
+      <c r="Q174" s="1">
+        <v>9.0420690266147403</v>
+      </c>
+    </row>
+    <row r="175" spans="17:17">
+      <c r="Q175" s="1">
+        <v>6.8036156517426303</v>
+      </c>
+    </row>
+    <row r="176" spans="17:17">
+      <c r="Q176" s="1">
+        <v>2.0126920346567299</v>
+      </c>
+    </row>
+    <row r="192" spans="17:17">
+      <c r="Q192" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="193" spans="17:17">
+      <c r="Q193" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="194" spans="17:17">
+      <c r="Q194" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="210" spans="17:17">
+      <c r="Q210" s="1">
+        <v>10.1436669486094</v>
+      </c>
+    </row>
+    <row r="211" spans="17:17">
+      <c r="Q211" s="1">
+        <v>10.0194122600113</v>
+      </c>
+    </row>
+    <row r="212" spans="17:17">
+      <c r="Q212" s="1">
+        <v>8.8898459440672593</v>
+      </c>
+    </row>
+    <row r="213" spans="17:17">
+      <c r="Q213" s="1">
+        <v>7.3371305580624204</v>
+      </c>
+    </row>
+    <row r="214" spans="17:17">
+      <c r="Q214" s="1">
+        <v>1.80926097863499</v>
+      </c>
+    </row>
+    <row r="230" spans="17:17">
+      <c r="Q230" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="231" spans="17:17">
+      <c r="Q231">
+        <v>-1.00820051</v>
+      </c>
+    </row>
+    <row r="232" spans="17:17">
+      <c r="Q232" s="1">
+        <v>0.17791005602010901</v>
       </c>
     </row>
   </sheetData>
@@ -1957,8 +8708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE92D17-E515-4641-BC92-A76D8264E0DA}">
   <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2246,4 +8997,1718 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{859AD764-D5A3-4D6F-9284-DECCF87557F2}">
+  <dimension ref="A1:M46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="M3" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="2"/>
+      <c r="E4" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="M6" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="2"/>
+      <c r="E8" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="2"/>
+      <c r="E12" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="2"/>
+      <c r="E16" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="2"/>
+      <c r="I20" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="13:13">
+      <c r="M46" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE5AA16F-E760-4611-AEB7-2866E6F7D9B9}">
+  <dimension ref="A1:M53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I50" sqref="I50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="M3" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="2"/>
+      <c r="E4" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="M6" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="2"/>
+      <c r="E8" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" t="s">
+        <v>240</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="2"/>
+      <c r="E12" t="s">
+        <v>241</v>
+      </c>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E13" t="s">
+        <v>242</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" t="s">
+        <v>243</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" t="s">
+        <v>244</v>
+      </c>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="2"/>
+      <c r="E16" t="s">
+        <v>245</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E17" t="s">
+        <v>246</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" t="s">
+        <v>247</v>
+      </c>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="2"/>
+      <c r="I20" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="13:13">
+      <c r="M34" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="53" spans="13:13">
+      <c r="M53" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{778615BA-5F34-46E5-9DB7-E8DBA24B4F9B}">
+  <dimension ref="A1:M46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="M3" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="2"/>
+      <c r="E4" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="M6" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="2"/>
+      <c r="E8" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="2"/>
+      <c r="E12" t="s">
+        <v>293</v>
+      </c>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E13" t="s">
+        <v>288</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" t="s">
+        <v>289</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" t="s">
+        <v>290</v>
+      </c>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="2"/>
+      <c r="E16" t="s">
+        <v>291</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E17" t="s">
+        <v>292</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="2"/>
+      <c r="M28" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="13:13">
+      <c r="M46" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72F8B181-894B-48FD-8D65-1A475E312EAB}">
+  <dimension ref="A1:M46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="M1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="M2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="M3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="2"/>
+      <c r="E4" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="M4" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="M5" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="M6" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="M7" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="2"/>
+      <c r="E8" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="2"/>
+      <c r="E12" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="2"/>
+      <c r="E16" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="2"/>
+      <c r="I20" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="13:13">
+      <c r="M46" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{191F2106-F754-426F-8178-62A70565144F}">
+  <dimension ref="A1:M48"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="I1" s="1"/>
+      <c r="M1" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="M3" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="2"/>
+      <c r="E4" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="M6" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="2"/>
+      <c r="E8" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="2"/>
+      <c r="E12" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="2"/>
+      <c r="E16" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="2"/>
+      <c r="I20" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="13:13">
+      <c r="M48" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DCB8913-0D93-4CB2-ADD3-DCA612920F46}">
+  <dimension ref="A1:M44"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="M3" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="2"/>
+      <c r="E4" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="M6" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="2"/>
+      <c r="E8" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="2"/>
+      <c r="E12" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="2"/>
+      <c r="E16" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="2"/>
+      <c r="I20" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="13:13">
+      <c r="M44" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/armonk_results.xlsx
+++ b/armonk_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nfberthusen\Documents\Projects\Research\benewop-benchmarking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FBE9A7F-0FBF-43CD-87F2-EFA21C39E020}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A584D97D-F747-4930-AAF9-2139B1808841}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="16" xr2:uid="{A83D9AE7-01C1-4705-9240-4A7C990C7FB0}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" firstSheet="3" activeTab="19" xr2:uid="{A83D9AE7-01C1-4705-9240-4A7C990C7FB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Armonk0" sheetId="3" r:id="rId1"/>
@@ -30,9 +30,11 @@
     <sheet name="Jojo13" sheetId="18" r:id="rId15"/>
     <sheet name="Jojo14" sheetId="19" r:id="rId16"/>
     <sheet name="Jojo15" sheetId="20" r:id="rId17"/>
+    <sheet name="Jojo16" sheetId="21" r:id="rId18"/>
+    <sheet name="Jojo17" sheetId="22" r:id="rId19"/>
+    <sheet name="Jojo18" sheetId="23" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -50,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="867">
   <si>
     <t>Sigma = 336</t>
   </si>
@@ -2333,6 +2335,324 @@
   </si>
   <si>
     <t>Conversion constant: 15.113382279092622. Exponent: -0.9420720154939807</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.9255702985634208</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.9002837456502224</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.8125224123005497</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.54164904240245</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.18186309701223674</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.12702749286796988</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.08046901719369828</t>
+  </si>
+  <si>
+    <t>['5efa3367f3a1b300132cd0f7',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5efa33691f31490012fddb76',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5efa336c20eee10013be430c',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5efa336e04f6d40013665bca',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5efa337004f6d40013665bcb',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5efa337311d14f0013abecf3',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5efa337620eee10013be430d',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5efa337920eee10013be430f']</t>
+  </si>
+  <si>
+    <t>[[16, 80, 0.9255702985634208],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [16, 112, 0.9002837456502224],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [16, 176, 0.8125224123005497],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [32, 256, 0.54164904240245],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [80, 608, 0.18186309701223674],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [112, 944, 0.12702749286796988],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [176, 1440, 0.08046901719369828]]</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.3702369874891184</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [48, 400, 0.3702369874891184],</t>
+  </si>
+  <si>
+    <t>Period = 87.74328452860695</t>
+  </si>
+  <si>
+    <t>Period = 197.85084515365193</t>
+  </si>
+  <si>
+    <t>Period = 388.3027063078206</t>
+  </si>
+  <si>
+    <t>Period = 547.3716399870816</t>
+  </si>
+  <si>
+    <t>Period = 861.1932667605826</t>
+  </si>
+  <si>
+    <t>['5efa40fb1c6a20001272eb0a',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5efa40fe2aeb6200123d2be1',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5efa4101f3a1b300132cd1fd',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5efa41031f31490012fddc55',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5efa4106f3a1b300132cd1fe',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5efa41091f31490012fddc56',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5efa410d2aeb6200123d2be3',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5efa411120eee10013be43ee']</t>
+  </si>
+  <si>
+    <t>Period = 138.82800013054782</t>
+  </si>
+  <si>
+    <t>Period = 95.94887545086506</t>
+  </si>
+  <si>
+    <t>Period = 85.60944330663746</t>
+  </si>
+  <si>
+    <t>Conversion constant: 76.16056132506117. Exponent: -0.9607519043146192</t>
+  </si>
+  <si>
+    <t>Conversion constant: 16.434457262102157. Exponent: -0.9389201013042705</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.8694900512886118</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.8674870203693015</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.8039648763939761</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.4256695203330245</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.2728874688691777</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.160775094300207</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.11266391095916693</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.0706996391426449</t>
+  </si>
+  <si>
+    <t>['5efa4c291c6a20001272ebb8',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5efa4c2b2aeb6200123d2c69',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5efa4c2d04f6d40013665d48',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5efa4c2f6920cd00125239e9',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5efa4c317c0d6800137ffda4',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5efa4c341c6a20001272ebb9',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5efa4c372aeb6200123d2c6b',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5efa4c3a6920cd00125239ea']</t>
+  </si>
+  <si>
+    <t>[[16, 80, 0.8694900512886118],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [16, 112, 0.8674870203693015],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [16, 176, 0.8039648763939761],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [32, 256, 0.4256695203330245],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [48, 400, 0.2728874688691777],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [80, 608, 0.160775094300207],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [112, 944, 0.11266391095916693],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [176, 1440, 0.0706996391426449]]</t>
+  </si>
+  <si>
+    <t>Period = 154.18822787816336</t>
+  </si>
+  <si>
+    <t>Period = 233.3159998399876</t>
+  </si>
+  <si>
+    <t>Period = 383.9691696084671</t>
+  </si>
+  <si>
+    <t>Period = 535.0791573074756</t>
+  </si>
+  <si>
+    <t>Period = 857.2840535651976</t>
+  </si>
+  <si>
+    <t>['5efa57ed2aeb6200123d2d9c',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5efa57f01f31490012fdde08',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5efa57f32aeb6200123d2d9d',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5efa57f61c6a20001272ece3',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5efa57f96920cd0012523b0e',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5efa57fc03510e00123c9b2e',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5efa580004f6d40013665e81',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5efa580403510e00123c9b31']</t>
+  </si>
+  <si>
+    <t>Period = 80.05953915145214</t>
+  </si>
+  <si>
+    <t>Period = 79.94524312025808</t>
+  </si>
+  <si>
+    <t>Period = 85.57704236605974</t>
+  </si>
+  <si>
+    <t>Conversion constant: 66.61375917115514. Exponent: -0.9620204924453801</t>
+  </si>
+  <si>
+    <t>Conversion constant: 13.78818074531042. Exponent: -0.9609761215025634</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 1.0005842657491106</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 1.1187475076579876</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 1.4502576316771583</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.5167989756559059</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.33947366820624686</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.1969268097967586</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.1412534989707599</t>
+  </si>
+  <si>
+    <t>Pi Amplitude = 0.09029120594590444</t>
+  </si>
+  <si>
+    <t>['5efa6bd26920cd0012523c07',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5efa6bd520eee10013be46be',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5efa6bd720eee10013be46c0',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5efa6bd803510e00123c9c5a',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5efa6bdbf3a1b300132cd50a',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5efa6bdd6920cd0012523c09',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5efa6be003510e00123c9c5c',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '5efa6be320eee10013be46c3']</t>
+  </si>
+  <si>
+    <t>[[16, 80, 1.000],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [32, 256, 0.5167989756559059],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [48, 400, 0.33947366820624686],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [80, 608, 0.1969268097967586],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [112, 944, 0.1412534989707599],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [176, 1440, 0.09029120594590444]]</t>
   </si>
 </sst>
 </file>
@@ -3477,6 +3797,260 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="7680960" y="5486400"/>
+          <a:ext cx="4107180" cy="2667000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>102870</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F0BC997-ECD2-4C22-98E5-191E3E59D064}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7680960" y="2194560"/>
+          <a:ext cx="3943350" cy="2667000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3065A6BF-96B6-44D4-896C-B4852F2BEE7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7680960" y="5303520"/>
+          <a:ext cx="4107180" cy="2667000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>102870</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7B3F148-743C-4ECF-B29E-FDAAD85B2879}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7680960" y="1828800"/>
+          <a:ext cx="3943350" cy="2667000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{165045D2-CFCE-4C5F-8D6C-1DC4B9FC4D20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7680960" y="4937760"/>
           <a:ext cx="4107180" cy="2667000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7828,7 +8402,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEE54EEC-C847-411B-B72C-A066C3BD4F4A}">
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
@@ -8108,6 +8682,591 @@
     <row r="46" spans="13:13">
       <c r="M46" s="1" t="s">
         <v>760</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15945C47-5CCD-43CD-A427-F537D2A253E6}">
+  <dimension ref="A1:M45"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="M45" sqref="M45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="M3" s="1" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="2"/>
+      <c r="E4" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="M6" s="1" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="2"/>
+      <c r="E8" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="2"/>
+      <c r="E12" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="2"/>
+      <c r="E16" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="2"/>
+      <c r="I20" s="1" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="1" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="2"/>
+      <c r="M28" s="1" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="1" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="13:13">
+      <c r="M45" s="1" t="s">
+        <v>802</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AD4BEE2-D5EC-4736-9D22-FF1341A23CF9}">
+  <dimension ref="A1:M43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="M43" sqref="M43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="M3" s="1" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="2"/>
+      <c r="E4" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="M6" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="2"/>
+      <c r="E8" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="2"/>
+      <c r="E12" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="2"/>
+      <c r="E16" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="2"/>
+      <c r="I20" s="1" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="1" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="1" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="13:13">
+      <c r="M43" s="1" t="s">
+        <v>844</v>
       </c>
     </row>
   </sheetData>
@@ -8701,6 +9860,205 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA1A1B2E-8C1D-4327-AB04-F9E850DBBE43}">
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10:E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2"/>
+      <c r="E4" s="1" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2"/>
+      <c r="E8" s="1" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2"/>
+      <c r="E12" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="E13" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="1" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/armonk_results.xlsx
+++ b/armonk_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nfberthusen\Documents\Projects\Research\benewop-benchmarking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A584D97D-F747-4930-AAF9-2139B1808841}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{020B4105-9CFB-4685-9AD8-6521FCE71776}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" firstSheet="3" activeTab="19" xr2:uid="{A83D9AE7-01C1-4705-9240-4A7C990C7FB0}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{A83D9AE7-01C1-4705-9240-4A7C990C7FB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Armonk0" sheetId="3" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="867">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="870">
   <si>
     <t>Sigma = 336</t>
   </si>
@@ -561,9 +561,6 @@
     <t xml:space="preserve"> '5ef3bbe874e2c3001237d5fd']</t>
   </si>
   <si>
-    <t>Amplitude = 0.538217253430765</t>
-  </si>
-  <si>
     <t>['5ef4cdf351390900147cd3b3',</t>
   </si>
   <si>
@@ -636,21 +633,6 @@
     <t>Pi Amplitude = 0.06249515428361315</t>
   </si>
   <si>
-    <t>Decay rate = -0.9199634</t>
-  </si>
-  <si>
-    <t>[-0.08343727 -0.9199634  10.09610884]</t>
-  </si>
-  <si>
-    <t>[-0.03708302  -1.09391319  9.97353816]</t>
-  </si>
-  <si>
-    <t>Decay rate =  -1.09391319</t>
-  </si>
-  <si>
-    <t>Amplitude = 0.357704552298432</t>
-  </si>
-  <si>
     <t>Period = 153.35407353949765</t>
   </si>
   <si>
@@ -705,27 +687,6 @@
     <t>Conversion constant: 11.45245806804462. Exponent: -0.9847146457687506</t>
   </si>
   <si>
-    <t>[-0.20442689 -0.76269796 10.93941748]</t>
-  </si>
-  <si>
-    <t>Decay rate = -0.76269796</t>
-  </si>
-  <si>
-    <t>Amplitude = 0.26769092284005813</t>
-  </si>
-  <si>
-    <t>[-0.11736571 -0.85643611 10.49278613]</t>
-  </si>
-  <si>
-    <t>Decay rate = -0.85643611</t>
-  </si>
-  <si>
-    <t>Amplitude = 0.213788892187756</t>
-  </si>
-  <si>
-    <t>[-0.05467633 -1.00820051 10.28490141]</t>
-  </si>
-  <si>
     <t>Pi Amplitude = 0.5771037738375678</t>
   </si>
   <si>
@@ -2653,6 +2614,54 @@
   </si>
   <si>
     <t xml:space="preserve"> [176, 1440, 0.09029120594590444]]</t>
+  </si>
+  <si>
+    <t>Conversion constant: 87.54344062139323. Exponent: -0.986135023870862</t>
+  </si>
+  <si>
+    <t>Amplitude = 0.052885570704157364</t>
+  </si>
+  <si>
+    <t>Amplitude = 0.03514827752397791</t>
+  </si>
+  <si>
+    <t>[4.12512747 0.06681002 0.69131707]</t>
+  </si>
+  <si>
+    <t>Decay rate = 0.0668100179968314</t>
+  </si>
+  <si>
+    <t>Amplitude = 0.026303480864795663</t>
+  </si>
+  <si>
+    <t>[4.75190097 0.04058719 0.23972955]</t>
+  </si>
+  <si>
+    <t>Decay rate = 0.040587187881374255</t>
+  </si>
+  <si>
+    <t>Amplitude = 0.02100703294346077</t>
+  </si>
+  <si>
+    <t>[4.45371595 0.02979901 0.09760188]</t>
+  </si>
+  <si>
+    <t>Decay rate = 0.02979900677660965</t>
+  </si>
+  <si>
+    <t>Amplitude = 0.017481555610967498</t>
+  </si>
+  <si>
+    <t>[3.24584011 0.12497565 1.81886715]</t>
+  </si>
+  <si>
+    <t>Decay rate = 0.1249756500452846</t>
+  </si>
+  <si>
+    <t>[3.23799535 0.07221198 1.75392067]</t>
+  </si>
+  <si>
+    <t>Decay rate = 0.07221198023984676</t>
   </si>
 </sst>
 </file>
@@ -2782,6 +2791,67 @@
         <a:xfrm>
           <a:off x="5116830" y="2049780"/>
           <a:ext cx="3954780" cy="2667000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E440B782-1CAD-444D-B022-0A53B4F7FA33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5120640" y="5303520"/>
+          <a:ext cx="4107180" cy="2667000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4212,10 +4282,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
+        <xdr:cNvPr id="16" name="Picture 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16201176-1811-412B-BC18-3A972F740CCA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{607A456E-2BED-42DC-94D9-818452C6C9D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4260,23 +4330,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>468630</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
+        <xdr:cNvPr id="22" name="Picture 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4F2913A-7719-4325-BE12-56F86792EA3B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94190082-3EA9-4EA4-AC5E-046043A46679}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4299,8 +4369,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="10241280" y="11338560"/>
-          <a:ext cx="3505200" cy="2362200"/>
+          <a:off x="0" y="16642080"/>
+          <a:ext cx="9429750" cy="6477000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4323,21 +4393,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>621030</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:colOff>468630</xdr:colOff>
+      <xdr:row>164</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7">
+        <xdr:cNvPr id="24" name="Picture 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9814F4E3-8969-4054-97F7-3BD9663994AC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDFAF4AC-62E7-48E6-913E-4088E115505F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4360,129 +4430,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="16824960"/>
-          <a:ext cx="9582150" cy="6477000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78339A92-1CD5-4E9D-956A-B44ABD60E973}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="10241280" y="18105120"/>
-          <a:ext cx="3505200" cy="2362200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>131</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>468630</xdr:colOff>
-      <xdr:row>166</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D29ECEBA-C210-4880-93FF-7B04C382FF2B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="23957280"/>
+          <a:off x="0" y="23591520"/>
           <a:ext cx="9429750" cy="6477000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4506,21 +4454,21 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>152</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>605790</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10">
+        <xdr:cNvPr id="25" name="Picture 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDFFD33B-CA8A-4B1E-ACF8-E8C35DA2FCFA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D24EB0A0-2613-4624-A4AB-33E68BC9FCBA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4529,7 +4477,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4543,8 +4491,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="10241280" y="25603200"/>
-          <a:ext cx="3505200" cy="2362200"/>
+          <a:off x="10241280" y="25054560"/>
+          <a:ext cx="5086350" cy="2716530"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4567,21 +4515,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>169</xdr:row>
+      <xdr:row>166</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>537210</xdr:colOff>
-      <xdr:row>204</xdr:row>
+      <xdr:row>201</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 11">
+        <xdr:cNvPr id="26" name="Picture 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{570625D0-A628-42F1-9A4E-F451304678AF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF345712-CABD-419A-A47F-5446E89B17A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4590,7 +4538,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4604,7 +4552,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="30906720"/>
+          <a:off x="0" y="30358080"/>
           <a:ext cx="9498330" cy="6477000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4628,21 +4576,143 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>177</xdr:row>
+      <xdr:row>173</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>189</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>605790</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 12">
+        <xdr:cNvPr id="27" name="Picture 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC7F1AC4-6393-420B-80FE-8EAF09270C3C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D60AE23A-4F7B-433D-B5B7-7C5FB2121DB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10241280" y="31638240"/>
+          <a:ext cx="5086350" cy="2716530"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>238</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7955E599-6E80-4DE8-BDEC-9B100AFBA9B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="37124640"/>
+          <a:ext cx="9517380" cy="6477000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>210</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>605790</xdr:colOff>
+      <xdr:row>224</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D6FCAF2-9CBE-410E-85FE-D897C9C48553}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4665,8 +4735,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="10241280" y="32369760"/>
-          <a:ext cx="3505200" cy="2362200"/>
+          <a:off x="10241280" y="38404800"/>
+          <a:ext cx="5086350" cy="2716530"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4689,59 +4759,42 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>207</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>135367</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>537210</xdr:colOff>
-      <xdr:row>242</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>540615</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>179381</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 13">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B8F8D4B-5264-47C6-90C6-50BE9C224ADA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD94DF42-154C-4BC1-A924-00BAD4E9E706}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="37856160"/>
-          <a:ext cx="9498330" cy="6477000"/>
+          <a:off x="0" y="9875520"/>
+          <a:ext cx="9514286" cy="6476190"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -4750,21 +4803,21 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>215</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>227</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>605790</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 14">
+        <xdr:cNvPr id="30" name="Picture 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29343623-BABD-44DE-82DC-0F19886C50C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14021D93-A3A1-4190-8245-9300043021AD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4787,8 +4840,113 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="10241280" y="39319200"/>
-          <a:ext cx="3505200" cy="2362200"/>
+          <a:off x="10241280" y="11155680"/>
+          <a:ext cx="5086350" cy="2716530"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>102198</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>454900</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>146211</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41FC458B-372A-439F-950B-7032CAD9091C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="16642080"/>
+          <a:ext cx="9428571" cy="6476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>605790</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DADB3349-85F3-4724-8AC9-A72623231B87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10241280" y="18288000"/>
+          <a:ext cx="5086350" cy="2716530"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5999,7 +6157,7 @@
   <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="P39" sqref="P39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6263,76 +6421,79 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:9">
       <c r="A35" s="2"/>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:9">
       <c r="A40" s="2"/>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:9">
       <c r="A45" s="2"/>
-    </row>
-    <row r="46" spans="1:1">
+      <c r="I45" s="1" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
         <v>29</v>
       </c>
@@ -6361,16 +6522,16 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -6378,13 +6539,13 @@
         <v>78</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -6392,37 +6553,37 @@
         <v>74</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="I3" s="2"/>
       <c r="M3" s="1" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="2"/>
       <c r="E4" s="1" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>449</v>
-      </c>
       <c r="M5" s="1" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -6430,11 +6591,11 @@
         <v>83</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="I6" s="2"/>
       <c r="M6" s="1" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -6442,30 +6603,30 @@
         <v>74</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="2"/>
       <c r="E8" s="1" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="I9" s="2"/>
     </row>
@@ -6474,7 +6635,7 @@
         <v>73</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -6482,28 +6643,28 @@
         <v>74</v>
       </c>
       <c r="E11" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="2"/>
       <c r="E12" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="E13" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -6511,10 +6672,10 @@
         <v>86</v>
       </c>
       <c r="E14" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -6522,28 +6683,28 @@
         <v>77</v>
       </c>
       <c r="E15" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="2"/>
       <c r="E16" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="E17" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -6551,7 +6712,7 @@
         <v>88</v>
       </c>
       <c r="E18" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="I18" s="2"/>
     </row>
@@ -6560,18 +6721,18 @@
         <v>75</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="2"/>
       <c r="I20" s="1" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="I21" s="2"/>
     </row>
@@ -6580,7 +6741,7 @@
         <v>79</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -6588,7 +6749,7 @@
         <v>80</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -6596,7 +6757,7 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -6609,7 +6770,7 @@
         <v>76</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -6617,7 +6778,7 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -6632,7 +6793,7 @@
     </row>
     <row r="45" spans="13:13">
       <c r="M45" s="1" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
     </row>
   </sheetData>
@@ -6653,16 +6814,16 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -6670,13 +6831,13 @@
         <v>78</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -6684,37 +6845,37 @@
         <v>74</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="I3" s="2"/>
       <c r="M3" s="1" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="2"/>
       <c r="E4" s="1" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>491</v>
-      </c>
       <c r="M5" s="1" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -6722,11 +6883,11 @@
         <v>83</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="I6" s="2"/>
       <c r="M6" s="1" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -6734,30 +6895,30 @@
         <v>74</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="2"/>
       <c r="E8" s="1" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="I9" s="2"/>
     </row>
@@ -6766,10 +6927,10 @@
         <v>73</v>
       </c>
       <c r="E10" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -6777,28 +6938,28 @@
         <v>74</v>
       </c>
       <c r="E11" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="2"/>
       <c r="E12" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="E13" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -6806,10 +6967,10 @@
         <v>86</v>
       </c>
       <c r="E14" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -6817,28 +6978,28 @@
         <v>77</v>
       </c>
       <c r="E15" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="2"/>
       <c r="E16" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="E17" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -6852,18 +7013,18 @@
         <v>75</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="2"/>
       <c r="I20" s="1" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="I21" s="2"/>
     </row>
@@ -6872,7 +7033,7 @@
         <v>79</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -6880,7 +7041,7 @@
         <v>80</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -6888,7 +7049,7 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -6901,7 +7062,7 @@
         <v>76</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -6909,7 +7070,7 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -6924,7 +7085,7 @@
     </row>
     <row r="46" spans="13:13">
       <c r="M46" s="1" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
     </row>
   </sheetData>
@@ -6945,10 +7106,10 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -6956,7 +7117,7 @@
         <v>78</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -6964,21 +7125,21 @@
         <v>74</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="2"/>
       <c r="E4" s="1" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -6986,7 +7147,7 @@
         <v>83</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -6994,18 +7155,18 @@
         <v>74</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="2"/>
       <c r="E8" s="1" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -7013,13 +7174,13 @@
         <v>73</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -7027,37 +7188,37 @@
         <v>74</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>547</v>
+        <v>534</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>540</v>
+        <v>527</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="2"/>
       <c r="E12" s="1" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
       <c r="I12" s="2"/>
       <c r="M12" s="1" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>527</v>
+        <v>514</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>542</v>
+        <v>529</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -7065,13 +7226,13 @@
         <v>86</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>528</v>
+        <v>515</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>548</v>
+        <v>535</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -7079,37 +7240,37 @@
         <v>77</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>531</v>
+        <v>518</v>
       </c>
       <c r="I15" s="2"/>
       <c r="M15" s="1" t="s">
-        <v>544</v>
+        <v>531</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="2"/>
       <c r="E16" s="1" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>545</v>
+        <v>532</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>530</v>
+        <v>517</v>
       </c>
       <c r="I17" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="M17" s="1" t="s">
         <v>533</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -7123,18 +7284,18 @@
         <v>75</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="2"/>
       <c r="I20" s="1" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
       <c r="I21" s="2"/>
     </row>
@@ -7143,7 +7304,7 @@
         <v>79</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -7151,7 +7312,7 @@
         <v>80</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -7160,10 +7321,10 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -7171,7 +7332,7 @@
         <v>91</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -7183,15 +7344,15 @@
     <row r="28" spans="1:13">
       <c r="A28" s="2"/>
       <c r="I28" s="1" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>537</v>
+        <v>524</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -7205,22 +7366,22 @@
         <v>72</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="I32" s="1" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
     </row>
     <row r="37" spans="13:13">
       <c r="M37" s="1" t="s">
-        <v>549</v>
+        <v>536</v>
       </c>
     </row>
     <row r="54" spans="13:13">
       <c r="M54" s="1" t="s">
-        <v>550</v>
+        <v>537</v>
       </c>
     </row>
   </sheetData>
@@ -7242,16 +7403,16 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>551</v>
+        <v>538</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>558</v>
+        <v>545</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>551</v>
+        <v>538</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -7259,13 +7420,13 @@
         <v>78</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>582</v>
+        <v>569</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -7273,37 +7434,37 @@
         <v>74</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="I3" s="2"/>
       <c r="M3" s="1" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="2"/>
       <c r="E4" s="1" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>584</v>
+        <v>571</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>575</v>
-      </c>
       <c r="M5" s="1" t="s">
-        <v>585</v>
+        <v>572</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -7311,11 +7472,11 @@
         <v>83</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="I6" s="2"/>
       <c r="M6" s="1" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -7323,30 +7484,30 @@
         <v>74</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="2"/>
       <c r="E8" s="1" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="I9" s="2"/>
     </row>
@@ -7355,10 +7516,10 @@
         <v>73</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -7366,28 +7527,28 @@
         <v>74</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>568</v>
+        <v>555</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>576</v>
+        <v>563</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="2"/>
       <c r="E12" s="1" t="s">
-        <v>569</v>
+        <v>556</v>
       </c>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>570</v>
+        <v>557</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -7395,10 +7556,10 @@
         <v>86</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>571</v>
+        <v>558</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>577</v>
+        <v>564</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -7406,28 +7567,28 @@
         <v>77</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>572</v>
+        <v>559</v>
       </c>
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="2"/>
       <c r="E16" s="1" t="s">
-        <v>573</v>
+        <v>560</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>566</v>
+        <v>553</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>574</v>
+        <v>561</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>578</v>
+        <v>565</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -7441,18 +7602,18 @@
         <v>75</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>556</v>
+        <v>543</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="2"/>
       <c r="I20" s="1" t="s">
-        <v>579</v>
+        <v>566</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>566</v>
+        <v>553</v>
       </c>
       <c r="I21" s="2"/>
     </row>
@@ -7461,7 +7622,7 @@
         <v>79</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>557</v>
+        <v>544</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -7469,7 +7630,7 @@
         <v>80</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>580</v>
+        <v>567</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -7477,7 +7638,7 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>556</v>
+        <v>543</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -7493,12 +7654,12 @@
     <row r="28" spans="1:13">
       <c r="A28" s="2"/>
       <c r="M28" s="1" t="s">
-        <v>591</v>
+        <v>578</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>557</v>
+        <v>544</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -7513,7 +7674,7 @@
     </row>
     <row r="46" spans="13:13">
       <c r="M46" s="1" t="s">
-        <v>592</v>
+        <v>579</v>
       </c>
     </row>
   </sheetData>
@@ -7534,16 +7695,16 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>593</v>
+        <v>580</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>601</v>
+        <v>588</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>593</v>
+        <v>580</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>623</v>
+        <v>610</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -7551,13 +7712,13 @@
         <v>78</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>602</v>
+        <v>589</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>624</v>
+        <v>611</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -7565,37 +7726,37 @@
         <v>74</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>603</v>
+        <v>590</v>
       </c>
       <c r="I3" s="2"/>
       <c r="M3" s="1" t="s">
-        <v>625</v>
+        <v>612</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="2"/>
       <c r="E4" s="1" t="s">
-        <v>604</v>
+        <v>591</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>594</v>
+        <v>581</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>626</v>
+        <v>613</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>594</v>
+        <v>581</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>617</v>
+        <v>604</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>627</v>
+        <v>614</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -7603,11 +7764,11 @@
         <v>83</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="I6" s="2"/>
       <c r="M6" s="1" t="s">
-        <v>628</v>
+        <v>615</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -7615,30 +7776,30 @@
         <v>74</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>595</v>
+        <v>582</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>629</v>
+        <v>616</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="2"/>
       <c r="E8" s="1" t="s">
-        <v>608</v>
+        <v>595</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>631</v>
+        <v>618</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>630</v>
+        <v>617</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>595</v>
+        <v>582</v>
       </c>
       <c r="I9" s="2"/>
     </row>
@@ -7647,10 +7808,10 @@
         <v>73</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>596</v>
+        <v>583</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -7658,28 +7819,28 @@
         <v>74</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>618</v>
+        <v>605</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="2"/>
       <c r="E12" s="1" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>596</v>
+        <v>583</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>597</v>
+        <v>584</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -7687,10 +7848,10 @@
         <v>86</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>613</v>
+        <v>600</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>619</v>
+        <v>606</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -7698,28 +7859,28 @@
         <v>77</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>614</v>
+        <v>601</v>
       </c>
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="2"/>
       <c r="E16" s="1" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>598</v>
+        <v>585</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>597</v>
+        <v>584</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>620</v>
+        <v>607</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -7733,18 +7894,18 @@
         <v>75</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>599</v>
+        <v>586</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="2"/>
       <c r="I20" s="1" t="s">
-        <v>621</v>
+        <v>608</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>598</v>
+        <v>585</v>
       </c>
       <c r="I21" s="2"/>
     </row>
@@ -7753,7 +7914,7 @@
         <v>79</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>600</v>
+        <v>587</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -7761,7 +7922,7 @@
         <v>80</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>622</v>
+        <v>609</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -7769,7 +7930,7 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>599</v>
+        <v>586</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -7787,7 +7948,7 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>600</v>
+        <v>587</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -7795,7 +7956,7 @@
         <v>71</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>633</v>
+        <v>620</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -7805,7 +7966,7 @@
     </row>
     <row r="47" spans="13:13">
       <c r="M47" s="1" t="s">
-        <v>634</v>
+        <v>621</v>
       </c>
     </row>
   </sheetData>
@@ -7826,16 +7987,16 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>635</v>
+        <v>622</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>643</v>
+        <v>630</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>635</v>
+        <v>622</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>659</v>
+        <v>646</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -7843,13 +8004,13 @@
         <v>78</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>644</v>
+        <v>631</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>672</v>
+        <v>659</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>660</v>
+        <v>647</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -7857,37 +8018,37 @@
         <v>74</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>645</v>
+        <v>632</v>
       </c>
       <c r="I3" s="2"/>
       <c r="M3" s="1" t="s">
-        <v>661</v>
+        <v>648</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="2"/>
       <c r="E4" s="1" t="s">
-        <v>646</v>
+        <v>633</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>636</v>
+        <v>623</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>662</v>
+        <v>649</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>636</v>
+        <v>623</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>647</v>
+        <v>634</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>673</v>
+        <v>660</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>663</v>
+        <v>650</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -7895,11 +8056,11 @@
         <v>83</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>648</v>
+        <v>635</v>
       </c>
       <c r="I6" s="2"/>
       <c r="M6" s="1" t="s">
-        <v>664</v>
+        <v>651</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -7907,30 +8068,30 @@
         <v>74</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>649</v>
+        <v>636</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>637</v>
+        <v>624</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="2"/>
       <c r="E8" s="1" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>674</v>
+        <v>661</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>666</v>
+        <v>653</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>637</v>
+        <v>624</v>
       </c>
       <c r="I9" s="2"/>
     </row>
@@ -7939,10 +8100,10 @@
         <v>73</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>638</v>
+        <v>625</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -7950,28 +8111,28 @@
         <v>74</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>667</v>
+        <v>654</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="2"/>
       <c r="E12" s="1" t="s">
-        <v>653</v>
+        <v>640</v>
       </c>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>638</v>
+        <v>625</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>654</v>
+        <v>641</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>639</v>
+        <v>626</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -7979,10 +8140,10 @@
         <v>86</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>655</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -7990,28 +8151,28 @@
         <v>77</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>656</v>
+        <v>643</v>
       </c>
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="2"/>
       <c r="E16" s="1" t="s">
-        <v>657</v>
+        <v>644</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>640</v>
+        <v>627</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>639</v>
+        <v>626</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>658</v>
+        <v>645</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>669</v>
+        <v>656</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -8025,18 +8186,18 @@
         <v>75</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>641</v>
+        <v>628</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="2"/>
       <c r="I20" s="1" t="s">
-        <v>670</v>
+        <v>657</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>640</v>
+        <v>627</v>
       </c>
       <c r="I21" s="2"/>
     </row>
@@ -8045,7 +8206,7 @@
         <v>79</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>642</v>
+        <v>629</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -8053,7 +8214,7 @@
         <v>80</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -8061,7 +8222,7 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>641</v>
+        <v>628</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -8077,12 +8238,12 @@
     <row r="28" spans="1:13">
       <c r="A28" s="2"/>
       <c r="M28" s="1" t="s">
-        <v>675</v>
+        <v>662</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>642</v>
+        <v>629</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -8097,7 +8258,7 @@
     </row>
     <row r="46" spans="13:13">
       <c r="M46" s="1" t="s">
-        <v>676</v>
+        <v>663</v>
       </c>
     </row>
   </sheetData>
@@ -8118,16 +8279,16 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>677</v>
+        <v>664</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>685</v>
+        <v>672</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>677</v>
+        <v>664</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>707</v>
+        <v>694</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -8135,13 +8296,13 @@
         <v>78</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>686</v>
+        <v>673</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>701</v>
+        <v>688</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>708</v>
+        <v>695</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -8149,37 +8310,37 @@
         <v>74</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>687</v>
+        <v>674</v>
       </c>
       <c r="I3" s="2"/>
       <c r="M3" s="1" t="s">
-        <v>709</v>
+        <v>696</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="2"/>
       <c r="E4" s="1" t="s">
-        <v>688</v>
+        <v>675</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>678</v>
+        <v>665</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>710</v>
+        <v>697</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>678</v>
+        <v>665</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>689</v>
+        <v>676</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>716</v>
+        <v>703</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>711</v>
+        <v>698</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -8187,11 +8348,11 @@
         <v>83</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>690</v>
+        <v>677</v>
       </c>
       <c r="I6" s="2"/>
       <c r="M6" s="1" t="s">
-        <v>712</v>
+        <v>699</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -8199,30 +8360,30 @@
         <v>74</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>679</v>
+        <v>666</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>713</v>
+        <v>700</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="2"/>
       <c r="E8" s="1" t="s">
-        <v>692</v>
+        <v>679</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>715</v>
+        <v>702</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>714</v>
+        <v>701</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>679</v>
+        <v>666</v>
       </c>
       <c r="I9" s="2"/>
     </row>
@@ -8231,10 +8392,10 @@
         <v>73</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>693</v>
+        <v>680</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>680</v>
+        <v>667</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -8242,28 +8403,28 @@
         <v>74</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>694</v>
+        <v>681</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>702</v>
+        <v>689</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="2"/>
       <c r="E12" s="1" t="s">
-        <v>695</v>
+        <v>682</v>
       </c>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>680</v>
+        <v>667</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>696</v>
+        <v>683</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>681</v>
+        <v>668</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -8271,10 +8432,10 @@
         <v>86</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>697</v>
+        <v>684</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>703</v>
+        <v>690</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -8282,28 +8443,28 @@
         <v>77</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>698</v>
+        <v>685</v>
       </c>
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="2"/>
       <c r="E16" s="1" t="s">
-        <v>699</v>
+        <v>686</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>682</v>
+        <v>669</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>681</v>
+        <v>668</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>700</v>
+        <v>687</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>704</v>
+        <v>691</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -8317,18 +8478,18 @@
         <v>75</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="2"/>
       <c r="I20" s="1" t="s">
-        <v>705</v>
+        <v>692</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>682</v>
+        <v>669</v>
       </c>
       <c r="I21" s="2"/>
     </row>
@@ -8337,7 +8498,7 @@
         <v>79</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>684</v>
+        <v>671</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -8345,7 +8506,7 @@
         <v>80</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>706</v>
+        <v>693</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -8353,7 +8514,7 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -8366,7 +8527,7 @@
         <v>76</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>717</v>
+        <v>704</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -8374,7 +8535,7 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>684</v>
+        <v>671</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -8389,7 +8550,7 @@
     </row>
     <row r="45" spans="13:13">
       <c r="M45" s="1" t="s">
-        <v>718</v>
+        <v>705</v>
       </c>
     </row>
   </sheetData>
@@ -8410,16 +8571,16 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>719</v>
+        <v>706</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>725</v>
+        <v>712</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>743</v>
+        <v>730</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -8427,13 +8588,13 @@
         <v>78</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>726</v>
+        <v>713</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>751</v>
+        <v>738</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>744</v>
+        <v>731</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -8441,37 +8602,37 @@
         <v>74</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>727</v>
+        <v>714</v>
       </c>
       <c r="I3" s="2"/>
       <c r="M3" s="1" t="s">
-        <v>745</v>
+        <v>732</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="2"/>
       <c r="E4" s="1" t="s">
-        <v>728</v>
+        <v>715</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>720</v>
+        <v>707</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>746</v>
+        <v>733</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>720</v>
+        <v>707</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>729</v>
+        <v>716</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>752</v>
+        <v>739</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>747</v>
+        <v>734</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -8479,11 +8640,11 @@
         <v>83</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>730</v>
+        <v>717</v>
       </c>
       <c r="I6" s="2"/>
       <c r="M6" s="1" t="s">
-        <v>748</v>
+        <v>735</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -8491,30 +8652,30 @@
         <v>74</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>721</v>
+        <v>708</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>749</v>
+        <v>736</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="2"/>
       <c r="E8" s="1" t="s">
-        <v>732</v>
+        <v>719</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>758</v>
+        <v>745</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>750</v>
+        <v>737</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>721</v>
+        <v>708</v>
       </c>
       <c r="I9" s="2"/>
     </row>
@@ -8523,7 +8684,7 @@
         <v>73</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>733</v>
+        <v>720</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -8531,28 +8692,28 @@
         <v>74</v>
       </c>
       <c r="E11" t="s">
-        <v>735</v>
+        <v>722</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>753</v>
+        <v>740</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="2"/>
       <c r="E12" t="s">
-        <v>736</v>
+        <v>723</v>
       </c>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>733</v>
+        <v>720</v>
       </c>
       <c r="E13" t="s">
-        <v>737</v>
+        <v>724</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>722</v>
+        <v>709</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -8560,10 +8721,10 @@
         <v>86</v>
       </c>
       <c r="E14" t="s">
-        <v>738</v>
+        <v>725</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>754</v>
+        <v>741</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -8571,28 +8732,28 @@
         <v>77</v>
       </c>
       <c r="E15" t="s">
-        <v>739</v>
+        <v>726</v>
       </c>
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="2"/>
       <c r="E16" t="s">
-        <v>740</v>
+        <v>727</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>723</v>
+        <v>710</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>722</v>
+        <v>709</v>
       </c>
       <c r="E17" t="s">
-        <v>741</v>
+        <v>728</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>755</v>
+        <v>742</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -8600,7 +8761,7 @@
         <v>88</v>
       </c>
       <c r="E18" t="s">
-        <v>742</v>
+        <v>729</v>
       </c>
       <c r="I18" s="2"/>
     </row>
@@ -8609,18 +8770,18 @@
         <v>75</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>734</v>
+        <v>721</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="2"/>
       <c r="I20" s="1" t="s">
-        <v>756</v>
+        <v>743</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>723</v>
+        <v>710</v>
       </c>
       <c r="I21" s="2"/>
     </row>
@@ -8629,7 +8790,7 @@
         <v>79</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>724</v>
+        <v>711</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -8637,7 +8798,7 @@
         <v>80</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>757</v>
+        <v>744</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -8645,7 +8806,7 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>734</v>
+        <v>721</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -8661,12 +8822,12 @@
     <row r="28" spans="1:13">
       <c r="A28" s="2"/>
       <c r="M28" s="1" t="s">
-        <v>759</v>
+        <v>746</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>724</v>
+        <v>711</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -8681,7 +8842,7 @@
     </row>
     <row r="46" spans="13:13">
       <c r="M46" s="1" t="s">
-        <v>760</v>
+        <v>747</v>
       </c>
     </row>
   </sheetData>
@@ -8702,16 +8863,16 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>761</v>
+        <v>748</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>768</v>
+        <v>755</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>761</v>
+        <v>748</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>790</v>
+        <v>777</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -8719,13 +8880,13 @@
         <v>78</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>769</v>
+        <v>756</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>800</v>
+        <v>787</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>791</v>
+        <v>778</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -8733,37 +8894,37 @@
         <v>74</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>770</v>
+        <v>757</v>
       </c>
       <c r="I3" s="2"/>
       <c r="M3" s="1" t="s">
-        <v>792</v>
+        <v>779</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="2"/>
       <c r="E4" s="1" t="s">
-        <v>771</v>
+        <v>758</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>762</v>
+        <v>749</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>793</v>
+        <v>780</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>762</v>
+        <v>749</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>772</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>785</v>
-      </c>
       <c r="M5" s="1" t="s">
-        <v>794</v>
+        <v>781</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -8771,11 +8932,11 @@
         <v>83</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>773</v>
+        <v>760</v>
       </c>
       <c r="I6" s="2"/>
       <c r="M6" s="1" t="s">
-        <v>795</v>
+        <v>782</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -8783,30 +8944,30 @@
         <v>74</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>774</v>
+        <v>761</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>763</v>
+        <v>750</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>796</v>
+        <v>783</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="2"/>
       <c r="E8" s="1" t="s">
-        <v>775</v>
+        <v>762</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>799</v>
+        <v>786</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>797</v>
+        <v>784</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>763</v>
+        <v>750</v>
       </c>
       <c r="I9" s="2"/>
     </row>
@@ -8815,10 +8976,10 @@
         <v>73</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>776</v>
+        <v>763</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>764</v>
+        <v>751</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -8826,28 +8987,28 @@
         <v>74</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>777</v>
+        <v>764</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>798</v>
+        <v>785</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="2"/>
       <c r="E12" s="1" t="s">
-        <v>778</v>
+        <v>765</v>
       </c>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>764</v>
+        <v>751</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>779</v>
+        <v>766</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>783</v>
+        <v>770</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -8855,10 +9016,10 @@
         <v>86</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>784</v>
+        <v>771</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>786</v>
+        <v>773</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -8866,28 +9027,28 @@
         <v>77</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>780</v>
+        <v>767</v>
       </c>
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="2"/>
       <c r="E16" s="1" t="s">
-        <v>781</v>
+        <v>768</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>765</v>
+        <v>752</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>783</v>
+        <v>770</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>782</v>
+        <v>769</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>787</v>
+        <v>774</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -8901,18 +9062,18 @@
         <v>75</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>766</v>
+        <v>753</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="2"/>
       <c r="I20" s="1" t="s">
-        <v>788</v>
+        <v>775</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>765</v>
+        <v>752</v>
       </c>
       <c r="I21" s="2"/>
     </row>
@@ -8921,7 +9082,7 @@
         <v>79</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>767</v>
+        <v>754</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -8929,7 +9090,7 @@
         <v>80</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>789</v>
+        <v>776</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -8937,7 +9098,7 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>766</v>
+        <v>753</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -8953,12 +9114,12 @@
     <row r="28" spans="1:13">
       <c r="A28" s="2"/>
       <c r="M28" s="1" t="s">
-        <v>801</v>
+        <v>788</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>767</v>
+        <v>754</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -8973,7 +9134,7 @@
     </row>
     <row r="45" spans="13:13">
       <c r="M45" s="1" t="s">
-        <v>802</v>
+        <v>789</v>
       </c>
     </row>
   </sheetData>
@@ -8995,16 +9156,16 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>803</v>
+        <v>790</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>811</v>
+        <v>798</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>803</v>
+        <v>790</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>832</v>
+        <v>819</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -9012,13 +9173,13 @@
         <v>78</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>812</v>
+        <v>799</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>841</v>
+        <v>828</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>833</v>
+        <v>820</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -9026,37 +9187,37 @@
         <v>74</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>813</v>
+        <v>800</v>
       </c>
       <c r="I3" s="2"/>
       <c r="M3" s="1" t="s">
-        <v>834</v>
+        <v>821</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="2"/>
       <c r="E4" s="1" t="s">
-        <v>814</v>
+        <v>801</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>804</v>
+        <v>791</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>804</v>
+        <v>791</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>815</v>
+        <v>802</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>840</v>
+        <v>827</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>836</v>
+        <v>823</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -9064,11 +9225,11 @@
         <v>83</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>816</v>
+        <v>803</v>
       </c>
       <c r="I6" s="2"/>
       <c r="M6" s="1" t="s">
-        <v>837</v>
+        <v>824</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -9076,30 +9237,30 @@
         <v>74</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>817</v>
+        <v>804</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>805</v>
+        <v>792</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>838</v>
+        <v>825</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="2"/>
       <c r="E8" s="1" t="s">
-        <v>818</v>
+        <v>805</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>842</v>
+        <v>829</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>839</v>
+        <v>826</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>805</v>
+        <v>792</v>
       </c>
       <c r="I9" s="2"/>
     </row>
@@ -9108,10 +9269,10 @@
         <v>73</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>819</v>
+        <v>806</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>806</v>
+        <v>793</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -9119,28 +9280,28 @@
         <v>74</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>820</v>
+        <v>807</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>827</v>
+        <v>814</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="2"/>
       <c r="E12" s="1" t="s">
-        <v>821</v>
+        <v>808</v>
       </c>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>806</v>
+        <v>793</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>822</v>
+        <v>809</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>807</v>
+        <v>794</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -9148,10 +9309,10 @@
         <v>86</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>823</v>
+        <v>810</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>828</v>
+        <v>815</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -9159,28 +9320,28 @@
         <v>77</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>824</v>
+        <v>811</v>
       </c>
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="2"/>
       <c r="E16" s="1" t="s">
-        <v>825</v>
+        <v>812</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>808</v>
+        <v>795</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>807</v>
+        <v>794</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>826</v>
+        <v>813</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>829</v>
+        <v>816</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -9194,18 +9355,18 @@
         <v>75</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>809</v>
+        <v>796</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="2"/>
       <c r="I20" s="1" t="s">
-        <v>830</v>
+        <v>817</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>808</v>
+        <v>795</v>
       </c>
       <c r="I21" s="2"/>
     </row>
@@ -9214,7 +9375,7 @@
         <v>79</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>810</v>
+        <v>797</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -9222,7 +9383,7 @@
         <v>80</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>831</v>
+        <v>818</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -9230,7 +9391,7 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>809</v>
+        <v>796</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -9238,7 +9399,7 @@
         <v>91</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>843</v>
+        <v>830</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -9251,7 +9412,7 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>810</v>
+        <v>797</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -9266,7 +9427,7 @@
     </row>
     <row r="43" spans="13:13">
       <c r="M43" s="1" t="s">
-        <v>844</v>
+        <v>831</v>
       </c>
     </row>
   </sheetData>
@@ -9277,10 +9438,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B839F2-24DF-4F83-AF49-8E1214A2C363}">
-  <dimension ref="A1:R232"/>
+  <dimension ref="A1:Q232"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q232" sqref="Q232"/>
+    <sheetView tabSelected="1" topLeftCell="A220" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q116" sqref="Q116:Q118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9643,218 +9804,257 @@
     </row>
     <row r="56" spans="9:17">
       <c r="Q56" s="1">
-        <v>9.7696446787471505</v>
+        <v>4.8027177913201298</v>
       </c>
     </row>
     <row r="57" spans="9:17">
       <c r="Q57" s="1">
-        <v>9.6359581880999592</v>
+        <v>4.4204186521905102</v>
       </c>
     </row>
     <row r="58" spans="9:17">
       <c r="Q58" s="1">
-        <v>8.9270722154685096</v>
+        <v>3.8513376585213899</v>
       </c>
     </row>
     <row r="59" spans="9:17">
       <c r="Q59" s="1">
-        <v>6.6683459070516298</v>
+        <v>2.90682894092657</v>
       </c>
     </row>
     <row r="60" spans="9:17">
       <c r="Q60" s="1">
-        <v>1.82000087741398</v>
-      </c>
-    </row>
-    <row r="77" spans="17:17">
-      <c r="Q77" t="s">
-        <v>195</v>
-      </c>
+        <v>2.2928919921773798</v>
+      </c>
+    </row>
+    <row r="61" spans="9:17">
+      <c r="Q61" s="1"/>
     </row>
     <row r="78" spans="17:17">
       <c r="Q78" s="1" t="s">
-        <v>194</v>
+        <v>866</v>
       </c>
     </row>
     <row r="79" spans="17:17">
       <c r="Q79" s="1" t="s">
-        <v>169</v>
-      </c>
+        <v>867</v>
+      </c>
+    </row>
+    <row r="80" spans="17:17">
+      <c r="Q80" s="1" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="81" spans="17:17">
+      <c r="Q81" s="1"/>
+    </row>
+    <row r="82" spans="17:17">
+      <c r="Q82" s="1"/>
     </row>
     <row r="94" spans="17:17">
       <c r="Q94" s="1">
-        <v>9.6778711980061001</v>
+        <v>4.82526492033384</v>
       </c>
     </row>
     <row r="95" spans="17:17">
       <c r="Q95" s="1">
-        <v>9.5439418091715993</v>
+        <v>4.3680497817624904</v>
       </c>
     </row>
     <row r="96" spans="17:17">
       <c r="Q96" s="1">
-        <v>9.5226263018744195</v>
+        <v>3.8265339580070599</v>
       </c>
     </row>
     <row r="97" spans="17:17">
       <c r="Q97" s="1">
-        <v>6.7276010918338596</v>
+        <v>3.1367522662622198</v>
       </c>
     </row>
     <row r="98" spans="17:17">
       <c r="Q98" s="1">
-        <v>1.2173577549383701</v>
-      </c>
+        <v>2.3206053311966999</v>
+      </c>
+    </row>
+    <row r="99" spans="17:17">
+      <c r="Q99" s="1"/>
     </row>
     <row r="115" spans="17:17">
-      <c r="Q115" s="1" t="s">
-        <v>196</v>
-      </c>
+      <c r="Q115" s="1"/>
     </row>
     <row r="116" spans="17:17">
-      <c r="Q116" t="s">
-        <v>197</v>
+      <c r="Q116" s="1" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="117" spans="17:17">
       <c r="Q117" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="135" spans="17:18">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="118" spans="17:17">
+      <c r="Q118" s="1" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="132" spans="17:17">
+      <c r="Q132" s="1">
+        <v>4.6175979477267397</v>
+      </c>
+    </row>
+    <row r="133" spans="17:17">
+      <c r="Q133" s="1">
+        <v>3.7694061888717201</v>
+      </c>
+    </row>
+    <row r="134" spans="17:17">
+      <c r="Q134" s="1">
+        <v>3.0465969882161001</v>
+      </c>
+    </row>
+    <row r="135" spans="17:17">
       <c r="Q135" s="1">
-        <v>10.4969109636901</v>
-      </c>
-      <c r="R135">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="136" spans="17:18">
+        <v>2.2194676251437002</v>
+      </c>
+    </row>
+    <row r="136" spans="17:17">
       <c r="Q136" s="1">
-        <v>9.9835169020502601</v>
-      </c>
-      <c r="R136">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="137" spans="17:18">
-      <c r="Q137" s="1">
-        <v>8.9666589929712401</v>
-      </c>
-      <c r="R137">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="138" spans="17:18">
-      <c r="Q138" s="1">
-        <v>6.5924334370789603</v>
-      </c>
-      <c r="R138">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="139" spans="17:18">
-      <c r="Q139" s="1">
-        <v>1.6824694309932799</v>
-      </c>
-      <c r="R139">
-        <v>160</v>
+        <v>1.13978388007579</v>
+      </c>
+    </row>
+    <row r="137" spans="17:17">
+      <c r="Q137" s="1"/>
+    </row>
+    <row r="139" spans="17:17">
+      <c r="Q139" s="1"/>
+    </row>
+    <row r="154" spans="17:17">
+      <c r="Q154" s="1" t="s">
+        <v>857</v>
       </c>
     </row>
     <row r="155" spans="17:17">
       <c r="Q155" s="1" t="s">
-        <v>217</v>
+        <v>858</v>
       </c>
     </row>
     <row r="156" spans="17:17">
-      <c r="Q156" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="157" spans="17:17">
-      <c r="Q157" t="s">
-        <v>219</v>
+      <c r="Q156" s="1" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="168" spans="17:17">
+      <c r="Q168" s="1">
+        <v>4.76839479393134</v>
+      </c>
+    </row>
+    <row r="169" spans="17:17">
+      <c r="Q169" s="1">
+        <v>4.1285798062049803</v>
+      </c>
+    </row>
+    <row r="170" spans="17:17">
+      <c r="Q170" s="1">
+        <v>3.3496868743991701</v>
+      </c>
+    </row>
+    <row r="171" spans="17:17">
+      <c r="Q171" s="1">
+        <v>2.3971974865201302</v>
       </c>
     </row>
     <row r="172" spans="17:17">
       <c r="Q172" s="1">
-        <v>10.1268197686187</v>
+        <v>1.1647473730762099</v>
       </c>
     </row>
     <row r="173" spans="17:17">
-      <c r="Q173" s="1">
-        <v>9.9136416796111106</v>
-      </c>
-    </row>
-    <row r="174" spans="17:17">
-      <c r="Q174" s="1">
-        <v>9.0420690266147403</v>
-      </c>
+      <c r="Q173" s="1"/>
     </row>
     <row r="175" spans="17:17">
-      <c r="Q175" s="1">
-        <v>6.8036156517426303</v>
-      </c>
+      <c r="Q175" s="1"/>
     </row>
     <row r="176" spans="17:17">
-      <c r="Q176" s="1">
-        <v>2.0126920346567299</v>
+      <c r="Q176" s="1"/>
+    </row>
+    <row r="189" spans="17:17">
+      <c r="Q189" s="1" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="190" spans="17:17">
+      <c r="Q190" s="1" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="191" spans="17:17">
+      <c r="Q191" s="1" t="s">
+        <v>862</v>
       </c>
     </row>
     <row r="192" spans="17:17">
-      <c r="Q192" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="193" spans="17:17">
-      <c r="Q193" t="s">
-        <v>221</v>
-      </c>
+      <c r="Q192" s="1"/>
     </row>
     <row r="194" spans="17:17">
-      <c r="Q194" s="1" t="s">
-        <v>222</v>
+      <c r="Q194" s="1"/>
+    </row>
+    <row r="205" spans="17:17">
+      <c r="Q205" s="1">
+        <v>4.3879959219417302</v>
+      </c>
+    </row>
+    <row r="206" spans="17:17">
+      <c r="Q206" s="1">
+        <v>3.78479032766124</v>
+      </c>
+    </row>
+    <row r="207" spans="17:17">
+      <c r="Q207" s="1">
+        <v>3.1916116465128401</v>
+      </c>
+    </row>
+    <row r="208" spans="17:17">
+      <c r="Q208" s="1">
+        <v>2.3133844990333801</v>
+      </c>
+    </row>
+    <row r="209" spans="17:17">
+      <c r="Q209" s="1">
+        <v>1.1523304163126</v>
       </c>
     </row>
     <row r="210" spans="17:17">
-      <c r="Q210" s="1">
-        <v>10.1436669486094</v>
-      </c>
-    </row>
-    <row r="211" spans="17:17">
-      <c r="Q211" s="1">
-        <v>10.0194122600113</v>
-      </c>
+      <c r="Q210" s="1"/>
     </row>
     <row r="212" spans="17:17">
-      <c r="Q212" s="1">
-        <v>8.8898459440672593</v>
-      </c>
+      <c r="Q212" s="1"/>
     </row>
     <row r="213" spans="17:17">
-      <c r="Q213" s="1">
-        <v>7.3371305580624204</v>
-      </c>
+      <c r="Q213" s="1"/>
     </row>
     <row r="214" spans="17:17">
-      <c r="Q214" s="1">
-        <v>1.80926097863499</v>
+      <c r="Q214" s="1"/>
+    </row>
+    <row r="227" spans="17:17">
+      <c r="Q227" s="1" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="228" spans="17:17">
+      <c r="Q228" s="1" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="229" spans="17:17">
+      <c r="Q229" s="1" t="s">
+        <v>865</v>
       </c>
     </row>
     <row r="230" spans="17:17">
-      <c r="Q230" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="231" spans="17:17">
-      <c r="Q231">
-        <v>-1.00820051</v>
-      </c>
+      <c r="Q230" s="1"/>
     </row>
     <row r="232" spans="17:17">
-      <c r="Q232" s="1">
-        <v>0.17791005602010901</v>
-      </c>
+      <c r="Q232" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9867,18 +10067,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA1A1B2E-8C1D-4327-AB04-F9E850DBBE43}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>845</v>
+        <v>832</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>853</v>
+        <v>840</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -9886,7 +10086,7 @@
         <v>78</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>854</v>
+        <v>841</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -9894,21 +10094,21 @@
         <v>74</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>855</v>
+        <v>842</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2"/>
       <c r="E4" s="1" t="s">
-        <v>856</v>
+        <v>843</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>846</v>
+        <v>833</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>857</v>
+        <v>844</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -9916,7 +10116,7 @@
         <v>83</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>858</v>
+        <v>845</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -9924,18 +10124,18 @@
         <v>74</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>859</v>
+        <v>846</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2"/>
       <c r="E8" s="1" t="s">
-        <v>860</v>
+        <v>847</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>847</v>
+        <v>834</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -9943,7 +10143,7 @@
         <v>73</v>
       </c>
       <c r="E10" t="s">
-        <v>861</v>
+        <v>848</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -9951,21 +10151,21 @@
         <v>74</v>
       </c>
       <c r="E11" t="s">
-        <v>862</v>
+        <v>849</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2"/>
       <c r="E12" t="s">
-        <v>863</v>
+        <v>850</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>848</v>
+        <v>835</v>
       </c>
       <c r="E13" t="s">
-        <v>864</v>
+        <v>851</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -9973,7 +10173,7 @@
         <v>86</v>
       </c>
       <c r="E14" t="s">
-        <v>865</v>
+        <v>852</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -9981,7 +10181,7 @@
         <v>77</v>
       </c>
       <c r="E15" t="s">
-        <v>866</v>
+        <v>853</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -9989,7 +10189,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>849</v>
+        <v>836</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -10007,7 +10207,7 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>850</v>
+        <v>837</v>
       </c>
     </row>
     <row r="22" spans="1:1">
@@ -10025,7 +10225,7 @@
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>851</v>
+        <v>838</v>
       </c>
     </row>
     <row r="26" spans="1:1">
@@ -10043,7 +10243,7 @@
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>852</v>
+        <v>839</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -10369,16 +10569,16 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -10386,13 +10586,13 @@
         <v>78</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -10400,37 +10600,37 @@
         <v>74</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I3" s="2"/>
       <c r="M3" s="1" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="2"/>
       <c r="E4" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -10438,11 +10638,11 @@
         <v>83</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I6" s="2"/>
       <c r="M6" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -10450,30 +10650,30 @@
         <v>74</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="2"/>
       <c r="E8" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I9" s="2"/>
     </row>
@@ -10482,10 +10682,10 @@
         <v>73</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -10493,28 +10693,28 @@
         <v>74</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="2"/>
       <c r="E12" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -10522,10 +10722,10 @@
         <v>86</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -10533,28 +10733,28 @@
         <v>77</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="2"/>
       <c r="E16" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -10568,18 +10768,18 @@
         <v>75</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="2"/>
       <c r="I20" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I21" s="2"/>
     </row>
@@ -10588,7 +10788,7 @@
         <v>79</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -10596,7 +10796,7 @@
         <v>80</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -10604,7 +10804,7 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -10617,7 +10817,7 @@
         <v>76</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -10625,7 +10825,7 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -10640,7 +10840,7 @@
     </row>
     <row r="46" spans="13:13">
       <c r="M46" s="1" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -10661,16 +10861,16 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -10678,13 +10878,13 @@
         <v>78</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -10692,37 +10892,37 @@
         <v>74</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="I3" s="2"/>
       <c r="M3" s="1" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="2"/>
       <c r="E4" s="1" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -10730,11 +10930,11 @@
         <v>83</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="I6" s="2"/>
       <c r="M6" s="1" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -10742,30 +10942,30 @@
         <v>74</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="2"/>
       <c r="E8" s="1" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="I9" s="2"/>
     </row>
@@ -10774,7 +10974,7 @@
         <v>73</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -10782,28 +10982,28 @@
         <v>74</v>
       </c>
       <c r="E11" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="2"/>
       <c r="E12" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="E13" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -10811,10 +11011,10 @@
         <v>86</v>
       </c>
       <c r="E14" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -10822,28 +11022,28 @@
         <v>77</v>
       </c>
       <c r="E15" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="2"/>
       <c r="E16" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="E17" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -10851,7 +11051,7 @@
         <v>88</v>
       </c>
       <c r="E18" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="I18" s="2"/>
     </row>
@@ -10860,18 +11060,18 @@
         <v>75</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="2"/>
       <c r="I20" s="1" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="I21" s="2"/>
     </row>
@@ -10880,7 +11080,7 @@
         <v>79</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -10888,7 +11088,7 @@
         <v>80</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -10896,7 +11096,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -10914,7 +11114,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -10929,12 +11129,12 @@
     </row>
     <row r="34" spans="13:13">
       <c r="M34" s="1" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="53" spans="13:13">
       <c r="M53" s="1" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -10955,16 +11155,16 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>282</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -10972,13 +11172,13 @@
         <v>78</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>283</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -10986,37 +11186,37 @@
         <v>74</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="I3" s="2"/>
       <c r="M3" s="1" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="2"/>
       <c r="E4" s="1" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -11024,11 +11224,11 @@
         <v>83</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="I6" s="2"/>
       <c r="M6" s="1" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -11036,24 +11236,24 @@
         <v>74</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="2"/>
       <c r="E8" s="1" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="I9" s="2"/>
     </row>
@@ -11062,7 +11262,7 @@
         <v>73</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -11070,25 +11270,25 @@
         <v>74</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="2"/>
       <c r="E12" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="E13" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -11096,10 +11296,10 @@
         <v>86</v>
       </c>
       <c r="E14" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -11107,28 +11307,28 @@
         <v>77</v>
       </c>
       <c r="E15" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="2"/>
       <c r="E16" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="E17" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -11146,7 +11346,7 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -11164,7 +11364,7 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -11180,12 +11380,12 @@
     <row r="28" spans="1:13">
       <c r="A28" s="2"/>
       <c r="M28" s="1" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -11200,7 +11400,7 @@
     </row>
     <row r="46" spans="13:13">
       <c r="M46" s="1" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -11221,16 +11421,16 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="M1" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -11238,13 +11438,13 @@
         <v>78</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="M2" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -11252,37 +11452,37 @@
         <v>74</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="I3" s="2"/>
       <c r="M3" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="2"/>
       <c r="E4" s="1" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="M4" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="M5" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -11290,11 +11490,11 @@
         <v>83</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="I6" s="2"/>
       <c r="M6" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -11302,27 +11502,27 @@
         <v>74</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="M7" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="2"/>
       <c r="E8" s="1" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="I9" s="2"/>
     </row>
@@ -11331,10 +11531,10 @@
         <v>73</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -11342,28 +11542,28 @@
         <v>74</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="2"/>
       <c r="E12" s="1" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -11371,10 +11571,10 @@
         <v>86</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -11382,28 +11582,28 @@
         <v>77</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="2"/>
       <c r="E16" s="1" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -11417,18 +11617,18 @@
         <v>75</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="2"/>
       <c r="I20" s="1" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -11446,7 +11646,7 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -11459,7 +11659,7 @@
         <v>76</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -11467,7 +11667,7 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -11482,7 +11682,7 @@
     </row>
     <row r="46" spans="13:13">
       <c r="M46" s="1" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -11503,14 +11703,14 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="I1" s="1"/>
       <c r="M1" s="1" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -11518,11 +11718,11 @@
         <v>78</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="I2" s="1"/>
       <c r="M2" s="1" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -11530,37 +11730,37 @@
         <v>74</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="I3" s="2"/>
       <c r="M3" s="1" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="2"/>
       <c r="E4" s="1" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -11568,11 +11768,11 @@
         <v>83</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="I6" s="2"/>
       <c r="M6" s="1" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -11580,30 +11780,30 @@
         <v>74</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="I7" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>365</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="2"/>
       <c r="E8" s="1" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="I8" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>366</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="I9" s="2"/>
     </row>
@@ -11612,7 +11812,7 @@
         <v>73</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -11620,28 +11820,28 @@
         <v>74</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="2"/>
       <c r="E12" s="1" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -11649,10 +11849,10 @@
         <v>86</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -11660,28 +11860,28 @@
         <v>77</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="2"/>
       <c r="E16" s="1" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -11689,7 +11889,7 @@
         <v>88</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="I18" s="2"/>
     </row>
@@ -11698,18 +11898,18 @@
         <v>75</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="2"/>
       <c r="I20" s="1" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="I21" s="2"/>
     </row>
@@ -11718,7 +11918,7 @@
         <v>79</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -11726,7 +11926,7 @@
         <v>80</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -11734,7 +11934,7 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -11752,7 +11952,7 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -11760,7 +11960,7 @@
         <v>71</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -11770,7 +11970,7 @@
     </row>
     <row r="48" spans="13:13">
       <c r="M48" s="1" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
     </row>
   </sheetData>
@@ -11791,16 +11991,16 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -11808,13 +12008,13 @@
         <v>78</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -11822,37 +12022,37 @@
         <v>74</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="I3" s="2"/>
       <c r="M3" s="1" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="2"/>
       <c r="E4" s="1" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -11860,11 +12060,11 @@
         <v>83</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="I6" s="2"/>
       <c r="M6" s="1" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -11872,30 +12072,30 @@
         <v>74</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="2"/>
       <c r="E8" s="1" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="I9" s="2"/>
     </row>
@@ -11904,7 +12104,7 @@
         <v>73</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -11912,28 +12112,28 @@
         <v>74</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="2"/>
       <c r="E12" s="1" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -11941,10 +12141,10 @@
         <v>86</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -11952,28 +12152,28 @@
         <v>77</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="2"/>
       <c r="E16" s="1" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -11981,7 +12181,7 @@
         <v>88</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="I18" s="2"/>
     </row>
@@ -11990,18 +12190,18 @@
         <v>75</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="2"/>
       <c r="I20" s="1" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="I21" s="2"/>
     </row>
@@ -12010,7 +12210,7 @@
         <v>79</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -12018,7 +12218,7 @@
         <v>80</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -12026,7 +12226,7 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -12039,7 +12239,7 @@
         <v>76</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -12047,7 +12247,7 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -12062,7 +12262,7 @@
     </row>
     <row r="44" spans="13:13">
       <c r="M44" s="1" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
     </row>
   </sheetData>
